--- a/a_psat/data/study_curriculum_data.xlsx
+++ b/a_psat/data/study_curriculum_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\paedison3\a_psat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB524A5B-6F80-47CC-81DF-6AC8E740FD04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0DBE45-E3F7-4712-A057-B80BF5AE253B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-54720" yWindow="2220" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="9270" windowWidth="18975" windowHeight="16200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="9" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="346">
   <si>
     <t>year</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -947,6 +947,195 @@
   <si>
     <t>category_id</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>천승현</t>
+  </si>
+  <si>
+    <t>김용섭</t>
+  </si>
+  <si>
+    <t>방희연</t>
+  </si>
+  <si>
+    <t>이용훈</t>
+  </si>
+  <si>
+    <t>최민석</t>
+  </si>
+  <si>
+    <t>윤현지</t>
+  </si>
+  <si>
+    <t>진결</t>
+  </si>
+  <si>
+    <t>디요르벡</t>
+  </si>
+  <si>
+    <t>연상만</t>
+  </si>
+  <si>
+    <t>김연우</t>
+  </si>
+  <si>
+    <t>류홍열</t>
+  </si>
+  <si>
+    <t>이시연</t>
+  </si>
+  <si>
+    <t>김민중</t>
+  </si>
+  <si>
+    <t>소재건</t>
+  </si>
+  <si>
+    <t>안지수</t>
+  </si>
+  <si>
+    <t>유가호</t>
+  </si>
+  <si>
+    <t>현용훈</t>
+  </si>
+  <si>
+    <t>고민성</t>
+  </si>
+  <si>
+    <t>김한규</t>
+  </si>
+  <si>
+    <t>박대환</t>
+  </si>
+  <si>
+    <t>양원열</t>
+  </si>
+  <si>
+    <t>이근영</t>
+  </si>
+  <si>
+    <t>임성주</t>
+  </si>
+  <si>
+    <t>하승리</t>
+  </si>
+  <si>
+    <t>김수오</t>
+  </si>
+  <si>
+    <t>우승희</t>
+  </si>
+  <si>
+    <t>황준혁</t>
+  </si>
+  <si>
+    <t>유상혁</t>
+  </si>
+  <si>
+    <t>정유민</t>
+  </si>
+  <si>
+    <t>함수아</t>
+  </si>
+  <si>
+    <t>계민규</t>
+  </si>
+  <si>
+    <t>최영훈</t>
+  </si>
+  <si>
+    <t>김민건</t>
+  </si>
+  <si>
+    <t>박효준</t>
+  </si>
+  <si>
+    <t>고세연</t>
+  </si>
+  <si>
+    <t>신지은</t>
+  </si>
+  <si>
+    <t>고은별</t>
+  </si>
+  <si>
+    <t>문중용</t>
+  </si>
+  <si>
+    <t>남예진</t>
+  </si>
+  <si>
+    <t>김규원</t>
+  </si>
+  <si>
+    <t>최수경</t>
+  </si>
+  <si>
+    <t>이종웅</t>
+  </si>
+  <si>
+    <t>조원호</t>
+  </si>
+  <si>
+    <t>우민지</t>
+  </si>
+  <si>
+    <t>손주영</t>
+  </si>
+  <si>
+    <t>김수정</t>
+  </si>
+  <si>
+    <t>박채은</t>
+  </si>
+  <si>
+    <t>이동건</t>
+  </si>
+  <si>
+    <t>박서현</t>
+  </si>
+  <si>
+    <t>성민경</t>
+  </si>
+  <si>
+    <t>오의인</t>
+  </si>
+  <si>
+    <t>송호진</t>
+  </si>
+  <si>
+    <t>김선웅</t>
+  </si>
+  <si>
+    <t>정아영</t>
+  </si>
+  <si>
+    <t>최유선</t>
+  </si>
+  <si>
+    <t>장은선</t>
+  </si>
+  <si>
+    <t>박채령</t>
+  </si>
+  <si>
+    <t>임수아</t>
+  </si>
+  <si>
+    <t>성치영</t>
+  </si>
+  <si>
+    <t>서승현</t>
+  </si>
+  <si>
+    <t>오원희</t>
+  </si>
+  <si>
+    <t>김은비</t>
+  </si>
+  <si>
+    <t>이동호</t>
   </si>
 </sst>
 </file>
@@ -954,7 +1143,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1016,7 +1205,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1301,7 +1490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD42FD2-A568-4C59-80FE-20E47C163B1F}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1896,11 +2085,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G284"/>
+  <dimension ref="A1:G358"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F252" sqref="F252"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E356" sqref="E356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8729,6 +8918,1782 @@
         <v>14</v>
       </c>
     </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>2025</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285" t="s">
+        <v>90</v>
+      </c>
+      <c r="E285" s="1">
+        <v>19100380</v>
+      </c>
+      <c r="F285" t="s">
+        <v>283</v>
+      </c>
+      <c r="G285" cm="1">
+        <f t="array" ref="G285">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B285)*(curriculum!C:C=C285)*(curriculum!D:D=D285))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>2025</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286" t="s">
+        <v>90</v>
+      </c>
+      <c r="E286" s="1">
+        <v>19101088</v>
+      </c>
+      <c r="F286" t="s">
+        <v>284</v>
+      </c>
+      <c r="G286" cm="1">
+        <f t="array" ref="G286">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B286)*(curriculum!C:C=C286)*(curriculum!D:D=D286))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>2025</v>
+      </c>
+      <c r="C287">
+        <v>1</v>
+      </c>
+      <c r="D287" t="s">
+        <v>90</v>
+      </c>
+      <c r="E287" s="1">
+        <v>19101092</v>
+      </c>
+      <c r="F287" t="s">
+        <v>246</v>
+      </c>
+      <c r="G287" cm="1">
+        <f t="array" ref="G287">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B287)*(curriculum!C:C=C287)*(curriculum!D:D=D287))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>2025</v>
+      </c>
+      <c r="C288">
+        <v>1</v>
+      </c>
+      <c r="D288" t="s">
+        <v>90</v>
+      </c>
+      <c r="E288" s="1">
+        <v>19101097</v>
+      </c>
+      <c r="F288" t="s">
+        <v>285</v>
+      </c>
+      <c r="G288" cm="1">
+        <f t="array" ref="G288">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B288)*(curriculum!C:C=C288)*(curriculum!D:D=D288))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>2025</v>
+      </c>
+      <c r="C289">
+        <v>1</v>
+      </c>
+      <c r="D289" t="s">
+        <v>90</v>
+      </c>
+      <c r="E289" s="1">
+        <v>19101134</v>
+      </c>
+      <c r="F289" t="s">
+        <v>248</v>
+      </c>
+      <c r="G289" cm="1">
+        <f t="array" ref="G289">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B289)*(curriculum!C:C=C289)*(curriculum!D:D=D289))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>2025</v>
+      </c>
+      <c r="C290">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>90</v>
+      </c>
+      <c r="E290" s="1">
+        <v>20101119</v>
+      </c>
+      <c r="F290" t="s">
+        <v>286</v>
+      </c>
+      <c r="G290" cm="1">
+        <f t="array" ref="G290">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B290)*(curriculum!C:C=C290)*(curriculum!D:D=D290))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>2025</v>
+      </c>
+      <c r="C291">
+        <v>1</v>
+      </c>
+      <c r="D291" t="s">
+        <v>90</v>
+      </c>
+      <c r="E291" s="1">
+        <v>20101124</v>
+      </c>
+      <c r="F291" t="s">
+        <v>249</v>
+      </c>
+      <c r="G291" cm="1">
+        <f t="array" ref="G291">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B291)*(curriculum!C:C=C291)*(curriculum!D:D=D291))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>2025</v>
+      </c>
+      <c r="C292">
+        <v>1</v>
+      </c>
+      <c r="D292" t="s">
+        <v>90</v>
+      </c>
+      <c r="E292" s="1">
+        <v>20101138</v>
+      </c>
+      <c r="F292" t="s">
+        <v>287</v>
+      </c>
+      <c r="G292" cm="1">
+        <f t="array" ref="G292">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B292)*(curriculum!C:C=C292)*(curriculum!D:D=D292))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>2025</v>
+      </c>
+      <c r="C293">
+        <v>1</v>
+      </c>
+      <c r="D293" t="s">
+        <v>90</v>
+      </c>
+      <c r="E293" s="1">
+        <v>20101141</v>
+      </c>
+      <c r="F293" t="s">
+        <v>251</v>
+      </c>
+      <c r="G293" cm="1">
+        <f t="array" ref="G293">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B293)*(curriculum!C:C=C293)*(curriculum!D:D=D293))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>2025</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294" t="s">
+        <v>90</v>
+      </c>
+      <c r="E294" s="1">
+        <v>21101083</v>
+      </c>
+      <c r="F294" t="s">
+        <v>252</v>
+      </c>
+      <c r="G294" cm="1">
+        <f t="array" ref="G294">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B294)*(curriculum!C:C=C294)*(curriculum!D:D=D294))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>2025</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295" t="s">
+        <v>90</v>
+      </c>
+      <c r="E295" s="1">
+        <v>23101615</v>
+      </c>
+      <c r="F295" t="s">
+        <v>288</v>
+      </c>
+      <c r="G295" cm="1">
+        <f t="array" ref="G295">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B295)*(curriculum!C:C=C295)*(curriculum!D:D=D295))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>2025</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296" t="s">
+        <v>90</v>
+      </c>
+      <c r="E296" s="1">
+        <v>23102459</v>
+      </c>
+      <c r="F296" t="s">
+        <v>289</v>
+      </c>
+      <c r="G296" cm="1">
+        <f t="array" ref="G296">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B296)*(curriculum!C:C=C296)*(curriculum!D:D=D296))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>2025</v>
+      </c>
+      <c r="C297">
+        <v>1</v>
+      </c>
+      <c r="D297" t="s">
+        <v>90</v>
+      </c>
+      <c r="E297" s="1">
+        <v>24110080</v>
+      </c>
+      <c r="F297" t="s">
+        <v>290</v>
+      </c>
+      <c r="G297" cm="1">
+        <f t="array" ref="G297">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B297)*(curriculum!C:C=C297)*(curriculum!D:D=D297))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>2025</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>90</v>
+      </c>
+      <c r="E298" s="1">
+        <v>25110001</v>
+      </c>
+      <c r="F298" t="s">
+        <v>183</v>
+      </c>
+      <c r="G298" cm="1">
+        <f t="array" ref="G298">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B298)*(curriculum!C:C=C298)*(curriculum!D:D=D298))</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="B299">
+        <v>2025</v>
+      </c>
+      <c r="C299">
+        <v>1</v>
+      </c>
+      <c r="D299" t="s">
+        <v>91</v>
+      </c>
+      <c r="E299" s="1">
+        <v>201802199</v>
+      </c>
+      <c r="F299" t="s">
+        <v>291</v>
+      </c>
+      <c r="G299" cm="1">
+        <f t="array" ref="G299">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B299)*(curriculum!C:C=C299)*(curriculum!D:D=D299))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="B300">
+        <v>2025</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>91</v>
+      </c>
+      <c r="E300" s="1">
+        <v>201900908</v>
+      </c>
+      <c r="F300" t="s">
+        <v>292</v>
+      </c>
+      <c r="G300" cm="1">
+        <f t="array" ref="G300">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B300)*(curriculum!C:C=C300)*(curriculum!D:D=D300))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="B301">
+        <v>2025</v>
+      </c>
+      <c r="C301">
+        <v>1</v>
+      </c>
+      <c r="D301" t="s">
+        <v>91</v>
+      </c>
+      <c r="E301" s="1">
+        <v>202001284</v>
+      </c>
+      <c r="F301" t="s">
+        <v>293</v>
+      </c>
+      <c r="G301" cm="1">
+        <f t="array" ref="G301">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B301)*(curriculum!C:C=C301)*(curriculum!D:D=D301))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="B302">
+        <v>2025</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302" t="s">
+        <v>91</v>
+      </c>
+      <c r="E302" s="1">
+        <v>202002554</v>
+      </c>
+      <c r="F302" t="s">
+        <v>294</v>
+      </c>
+      <c r="G302" cm="1">
+        <f t="array" ref="G302">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B302)*(curriculum!C:C=C302)*(curriculum!D:D=D302))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="B303">
+        <v>2025</v>
+      </c>
+      <c r="C303">
+        <v>1</v>
+      </c>
+      <c r="D303" t="s">
+        <v>91</v>
+      </c>
+      <c r="E303" s="1">
+        <v>202100638</v>
+      </c>
+      <c r="F303" t="s">
+        <v>295</v>
+      </c>
+      <c r="G303" cm="1">
+        <f t="array" ref="G303">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B303)*(curriculum!C:C=C303)*(curriculum!D:D=D303))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="B304">
+        <v>2025</v>
+      </c>
+      <c r="C304">
+        <v>1</v>
+      </c>
+      <c r="D304" t="s">
+        <v>91</v>
+      </c>
+      <c r="E304" s="1">
+        <v>202101786</v>
+      </c>
+      <c r="F304" t="s">
+        <v>296</v>
+      </c>
+      <c r="G304" cm="1">
+        <f t="array" ref="G304">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B304)*(curriculum!C:C=C304)*(curriculum!D:D=D304))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="B305">
+        <v>2025</v>
+      </c>
+      <c r="C305">
+        <v>1</v>
+      </c>
+      <c r="D305" t="s">
+        <v>91</v>
+      </c>
+      <c r="E305" s="1">
+        <v>202102012</v>
+      </c>
+      <c r="F305" t="s">
+        <v>297</v>
+      </c>
+      <c r="G305" cm="1">
+        <f t="array" ref="G305">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B305)*(curriculum!C:C=C305)*(curriculum!D:D=D305))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="B306">
+        <v>2025</v>
+      </c>
+      <c r="C306">
+        <v>1</v>
+      </c>
+      <c r="D306" t="s">
+        <v>91</v>
+      </c>
+      <c r="E306" s="1">
+        <v>202102180</v>
+      </c>
+      <c r="F306" t="s">
+        <v>298</v>
+      </c>
+      <c r="G306" cm="1">
+        <f t="array" ref="G306">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B306)*(curriculum!C:C=C306)*(curriculum!D:D=D306))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="B307">
+        <v>2025</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307" t="s">
+        <v>91</v>
+      </c>
+      <c r="E307" s="1">
+        <v>202103696</v>
+      </c>
+      <c r="F307" t="s">
+        <v>299</v>
+      </c>
+      <c r="G307" cm="1">
+        <f t="array" ref="G307">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B307)*(curriculum!C:C=C307)*(curriculum!D:D=D307))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="B308">
+        <v>2025</v>
+      </c>
+      <c r="C308">
+        <v>1</v>
+      </c>
+      <c r="D308" t="s">
+        <v>91</v>
+      </c>
+      <c r="E308" s="1">
+        <v>202200275</v>
+      </c>
+      <c r="F308" t="s">
+        <v>300</v>
+      </c>
+      <c r="G308" cm="1">
+        <f t="array" ref="G308">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B308)*(curriculum!C:C=C308)*(curriculum!D:D=D308))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="B309">
+        <v>2025</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309" t="s">
+        <v>91</v>
+      </c>
+      <c r="E309" s="1">
+        <v>202201078</v>
+      </c>
+      <c r="F309" t="s">
+        <v>301</v>
+      </c>
+      <c r="G309" cm="1">
+        <f t="array" ref="G309">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B309)*(curriculum!C:C=C309)*(curriculum!D:D=D309))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="B310">
+        <v>2025</v>
+      </c>
+      <c r="C310">
+        <v>1</v>
+      </c>
+      <c r="D310" t="s">
+        <v>91</v>
+      </c>
+      <c r="E310" s="1">
+        <v>202201330</v>
+      </c>
+      <c r="F310" t="s">
+        <v>302</v>
+      </c>
+      <c r="G310" cm="1">
+        <f t="array" ref="G310">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B310)*(curriculum!C:C=C310)*(curriculum!D:D=D310))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="B311">
+        <v>2025</v>
+      </c>
+      <c r="C311">
+        <v>1</v>
+      </c>
+      <c r="D311" t="s">
+        <v>91</v>
+      </c>
+      <c r="E311" s="1">
+        <v>202202030</v>
+      </c>
+      <c r="F311" t="s">
+        <v>303</v>
+      </c>
+      <c r="G311" cm="1">
+        <f t="array" ref="G311">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B311)*(curriculum!C:C=C311)*(curriculum!D:D=D311))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="B312">
+        <v>2025</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312" t="s">
+        <v>91</v>
+      </c>
+      <c r="E312" s="1">
+        <v>202202077</v>
+      </c>
+      <c r="F312" t="s">
+        <v>270</v>
+      </c>
+      <c r="G312" cm="1">
+        <f t="array" ref="G312">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B312)*(curriculum!C:C=C312)*(curriculum!D:D=D312))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="B313">
+        <v>2025</v>
+      </c>
+      <c r="C313">
+        <v>1</v>
+      </c>
+      <c r="D313" t="s">
+        <v>91</v>
+      </c>
+      <c r="E313" s="1">
+        <v>202202354</v>
+      </c>
+      <c r="F313" t="s">
+        <v>304</v>
+      </c>
+      <c r="G313" cm="1">
+        <f t="array" ref="G313">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B313)*(curriculum!C:C=C313)*(curriculum!D:D=D313))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="B314">
+        <v>2025</v>
+      </c>
+      <c r="C314">
+        <v>1</v>
+      </c>
+      <c r="D314" t="s">
+        <v>91</v>
+      </c>
+      <c r="E314" s="1">
+        <v>202202942</v>
+      </c>
+      <c r="F314" t="s">
+        <v>305</v>
+      </c>
+      <c r="G314" cm="1">
+        <f t="array" ref="G314">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B314)*(curriculum!C:C=C314)*(curriculum!D:D=D314))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="B315">
+        <v>2025</v>
+      </c>
+      <c r="C315">
+        <v>1</v>
+      </c>
+      <c r="D315" t="s">
+        <v>91</v>
+      </c>
+      <c r="E315" s="1">
+        <v>202203411</v>
+      </c>
+      <c r="F315" t="s">
+        <v>272</v>
+      </c>
+      <c r="G315" cm="1">
+        <f t="array" ref="G315">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B315)*(curriculum!C:C=C315)*(curriculum!D:D=D315))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="B316">
+        <v>2025</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316" t="s">
+        <v>91</v>
+      </c>
+      <c r="E316" s="1">
+        <v>202203682</v>
+      </c>
+      <c r="F316" t="s">
+        <v>306</v>
+      </c>
+      <c r="G316" cm="1">
+        <f t="array" ref="G316">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B316)*(curriculum!C:C=C316)*(curriculum!D:D=D316))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="B317">
+        <v>2025</v>
+      </c>
+      <c r="C317">
+        <v>1</v>
+      </c>
+      <c r="D317" t="s">
+        <v>91</v>
+      </c>
+      <c r="E317" s="1">
+        <v>202300799</v>
+      </c>
+      <c r="F317" t="s">
+        <v>307</v>
+      </c>
+      <c r="G317" cm="1">
+        <f t="array" ref="G317">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B317)*(curriculum!C:C=C317)*(curriculum!D:D=D317))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>2025</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318" t="s">
+        <v>91</v>
+      </c>
+      <c r="E318" s="1">
+        <v>202301276</v>
+      </c>
+      <c r="F318" t="s">
+        <v>308</v>
+      </c>
+      <c r="G318" cm="1">
+        <f t="array" ref="G318">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B318)*(curriculum!C:C=C318)*(curriculum!D:D=D318))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="B319">
+        <v>2025</v>
+      </c>
+      <c r="C319">
+        <v>1</v>
+      </c>
+      <c r="D319" t="s">
+        <v>91</v>
+      </c>
+      <c r="E319" s="1">
+        <v>202301480</v>
+      </c>
+      <c r="F319" t="s">
+        <v>309</v>
+      </c>
+      <c r="G319" cm="1">
+        <f t="array" ref="G319">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B319)*(curriculum!C:C=C319)*(curriculum!D:D=D319))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="B320">
+        <v>2025</v>
+      </c>
+      <c r="C320">
+        <v>1</v>
+      </c>
+      <c r="D320" t="s">
+        <v>91</v>
+      </c>
+      <c r="E320" s="1">
+        <v>202301777</v>
+      </c>
+      <c r="F320" t="s">
+        <v>310</v>
+      </c>
+      <c r="G320" cm="1">
+        <f t="array" ref="G320">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B320)*(curriculum!C:C=C320)*(curriculum!D:D=D320))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="B321">
+        <v>2025</v>
+      </c>
+      <c r="C321">
+        <v>1</v>
+      </c>
+      <c r="D321" t="s">
+        <v>91</v>
+      </c>
+      <c r="E321" s="1">
+        <v>202302421</v>
+      </c>
+      <c r="F321" t="s">
+        <v>311</v>
+      </c>
+      <c r="G321" cm="1">
+        <f t="array" ref="G321">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B321)*(curriculum!C:C=C321)*(curriculum!D:D=D321))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="B322">
+        <v>2025</v>
+      </c>
+      <c r="C322">
+        <v>1</v>
+      </c>
+      <c r="D322" t="s">
+        <v>91</v>
+      </c>
+      <c r="E322" s="1">
+        <v>202302457</v>
+      </c>
+      <c r="F322" t="s">
+        <v>312</v>
+      </c>
+      <c r="G322" cm="1">
+        <f t="array" ref="G322">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B322)*(curriculum!C:C=C322)*(curriculum!D:D=D322))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="B323">
+        <v>2025</v>
+      </c>
+      <c r="C323">
+        <v>1</v>
+      </c>
+      <c r="D323" t="s">
+        <v>91</v>
+      </c>
+      <c r="E323" s="1">
+        <v>202302747</v>
+      </c>
+      <c r="F323" t="s">
+        <v>313</v>
+      </c>
+      <c r="G323" cm="1">
+        <f t="array" ref="G323">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B323)*(curriculum!C:C=C323)*(curriculum!D:D=D323))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="B324">
+        <v>2025</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324" t="s">
+        <v>91</v>
+      </c>
+      <c r="E324" s="1">
+        <v>202303463</v>
+      </c>
+      <c r="F324" t="s">
+        <v>314</v>
+      </c>
+      <c r="G324" cm="1">
+        <f t="array" ref="G324">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B324)*(curriculum!C:C=C324)*(curriculum!D:D=D324))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="B325">
+        <v>2025</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325" t="s">
+        <v>91</v>
+      </c>
+      <c r="E325" s="1">
+        <v>202303636</v>
+      </c>
+      <c r="F325" t="s">
+        <v>315</v>
+      </c>
+      <c r="G325" cm="1">
+        <f t="array" ref="G325">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B325)*(curriculum!C:C=C325)*(curriculum!D:D=D325))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="B326">
+        <v>2025</v>
+      </c>
+      <c r="C326">
+        <v>1</v>
+      </c>
+      <c r="D326" t="s">
+        <v>91</v>
+      </c>
+      <c r="E326" s="1">
+        <v>202303694</v>
+      </c>
+      <c r="F326" t="s">
+        <v>278</v>
+      </c>
+      <c r="G326" cm="1">
+        <f t="array" ref="G326">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B326)*(curriculum!C:C=C326)*(curriculum!D:D=D326))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="B327">
+        <v>2025</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327" t="s">
+        <v>91</v>
+      </c>
+      <c r="E327" s="1">
+        <v>202304644</v>
+      </c>
+      <c r="F327" t="s">
+        <v>316</v>
+      </c>
+      <c r="G327" cm="1">
+        <f t="array" ref="G327">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B327)*(curriculum!C:C=C327)*(curriculum!D:D=D327))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="B328">
+        <v>2025</v>
+      </c>
+      <c r="C328">
+        <v>1</v>
+      </c>
+      <c r="D328" t="s">
+        <v>91</v>
+      </c>
+      <c r="E328" s="1">
+        <v>202304647</v>
+      </c>
+      <c r="F328" t="s">
+        <v>317</v>
+      </c>
+      <c r="G328" cm="1">
+        <f t="array" ref="G328">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B328)*(curriculum!C:C=C328)*(curriculum!D:D=D328))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="B329">
+        <v>2025</v>
+      </c>
+      <c r="C329">
+        <v>1</v>
+      </c>
+      <c r="D329" t="s">
+        <v>91</v>
+      </c>
+      <c r="E329" s="1">
+        <v>202304730</v>
+      </c>
+      <c r="F329" t="s">
+        <v>318</v>
+      </c>
+      <c r="G329" cm="1">
+        <f t="array" ref="G329">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B329)*(curriculum!C:C=C329)*(curriculum!D:D=D329))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="B330">
+        <v>2025</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330" t="s">
+        <v>91</v>
+      </c>
+      <c r="E330" s="1">
+        <v>202400185</v>
+      </c>
+      <c r="F330" t="s">
+        <v>142</v>
+      </c>
+      <c r="G330" cm="1">
+        <f t="array" ref="G330">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B330)*(curriculum!C:C=C330)*(curriculum!D:D=D330))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="B331">
+        <v>2025</v>
+      </c>
+      <c r="C331">
+        <v>1</v>
+      </c>
+      <c r="D331" t="s">
+        <v>91</v>
+      </c>
+      <c r="E331" s="1">
+        <v>202400387</v>
+      </c>
+      <c r="F331" t="s">
+        <v>319</v>
+      </c>
+      <c r="G331" cm="1">
+        <f t="array" ref="G331">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B331)*(curriculum!C:C=C331)*(curriculum!D:D=D331))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="B332">
+        <v>2025</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332" t="s">
+        <v>91</v>
+      </c>
+      <c r="E332" s="1">
+        <v>202400388</v>
+      </c>
+      <c r="F332" t="s">
+        <v>320</v>
+      </c>
+      <c r="G332" cm="1">
+        <f t="array" ref="G332">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B332)*(curriculum!C:C=C332)*(curriculum!D:D=D332))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="B333">
+        <v>2025</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333" t="s">
+        <v>91</v>
+      </c>
+      <c r="E333" s="1">
+        <v>202400514</v>
+      </c>
+      <c r="F333" t="s">
+        <v>321</v>
+      </c>
+      <c r="G333" cm="1">
+        <f t="array" ref="G333">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B333)*(curriculum!C:C=C333)*(curriculum!D:D=D333))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="B334">
+        <v>2025</v>
+      </c>
+      <c r="C334">
+        <v>1</v>
+      </c>
+      <c r="D334" t="s">
+        <v>91</v>
+      </c>
+      <c r="E334" s="1">
+        <v>202400685</v>
+      </c>
+      <c r="F334" t="s">
+        <v>322</v>
+      </c>
+      <c r="G334" cm="1">
+        <f t="array" ref="G334">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B334)*(curriculum!C:C=C334)*(curriculum!D:D=D334))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="B335">
+        <v>2025</v>
+      </c>
+      <c r="C335">
+        <v>1</v>
+      </c>
+      <c r="D335" t="s">
+        <v>91</v>
+      </c>
+      <c r="E335" s="1">
+        <v>202400686</v>
+      </c>
+      <c r="F335" t="s">
+        <v>323</v>
+      </c>
+      <c r="G335" cm="1">
+        <f t="array" ref="G335">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B335)*(curriculum!C:C=C335)*(curriculum!D:D=D335))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="B336">
+        <v>2025</v>
+      </c>
+      <c r="C336">
+        <v>1</v>
+      </c>
+      <c r="D336" t="s">
+        <v>91</v>
+      </c>
+      <c r="E336" s="1">
+        <v>202400720</v>
+      </c>
+      <c r="F336" t="s">
+        <v>324</v>
+      </c>
+      <c r="G336" cm="1">
+        <f t="array" ref="G336">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B336)*(curriculum!C:C=C336)*(curriculum!D:D=D336))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="B337">
+        <v>2025</v>
+      </c>
+      <c r="C337">
+        <v>1</v>
+      </c>
+      <c r="D337" t="s">
+        <v>91</v>
+      </c>
+      <c r="E337" s="1">
+        <v>202400834</v>
+      </c>
+      <c r="F337" t="s">
+        <v>325</v>
+      </c>
+      <c r="G337" cm="1">
+        <f t="array" ref="G337">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B337)*(curriculum!C:C=C337)*(curriculum!D:D=D337))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="B338">
+        <v>2025</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338" t="s">
+        <v>91</v>
+      </c>
+      <c r="E338" s="1">
+        <v>202401153</v>
+      </c>
+      <c r="F338" t="s">
+        <v>326</v>
+      </c>
+      <c r="G338" cm="1">
+        <f t="array" ref="G338">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B338)*(curriculum!C:C=C338)*(curriculum!D:D=D338))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="B339">
+        <v>2025</v>
+      </c>
+      <c r="C339">
+        <v>1</v>
+      </c>
+      <c r="D339" t="s">
+        <v>91</v>
+      </c>
+      <c r="E339" s="1">
+        <v>202401223</v>
+      </c>
+      <c r="F339" t="s">
+        <v>115</v>
+      </c>
+      <c r="G339" cm="1">
+        <f t="array" ref="G339">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B339)*(curriculum!C:C=C339)*(curriculum!D:D=D339))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="B340">
+        <v>2025</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340" t="s">
+        <v>91</v>
+      </c>
+      <c r="E340" s="1">
+        <v>202401469</v>
+      </c>
+      <c r="F340" t="s">
+        <v>327</v>
+      </c>
+      <c r="G340" cm="1">
+        <f t="array" ref="G340">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B340)*(curriculum!C:C=C340)*(curriculum!D:D=D340))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="B341">
+        <v>2025</v>
+      </c>
+      <c r="C341">
+        <v>1</v>
+      </c>
+      <c r="D341" t="s">
+        <v>91</v>
+      </c>
+      <c r="E341" s="1">
+        <v>202401831</v>
+      </c>
+      <c r="F341" t="s">
+        <v>328</v>
+      </c>
+      <c r="G341" cm="1">
+        <f t="array" ref="G341">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B341)*(curriculum!C:C=C341)*(curriculum!D:D=D341))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="B342">
+        <v>2025</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342" t="s">
+        <v>91</v>
+      </c>
+      <c r="E342" s="1">
+        <v>202401947</v>
+      </c>
+      <c r="F342" t="s">
+        <v>329</v>
+      </c>
+      <c r="G342" cm="1">
+        <f t="array" ref="G342">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B342)*(curriculum!C:C=C342)*(curriculum!D:D=D342))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="B343">
+        <v>2025</v>
+      </c>
+      <c r="C343">
+        <v>1</v>
+      </c>
+      <c r="D343" t="s">
+        <v>91</v>
+      </c>
+      <c r="E343" s="1">
+        <v>202402456</v>
+      </c>
+      <c r="F343" t="s">
+        <v>330</v>
+      </c>
+      <c r="G343" cm="1">
+        <f t="array" ref="G343">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B343)*(curriculum!C:C=C343)*(curriculum!D:D=D343))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="B344">
+        <v>2025</v>
+      </c>
+      <c r="C344">
+        <v>1</v>
+      </c>
+      <c r="D344" t="s">
+        <v>91</v>
+      </c>
+      <c r="E344" s="1">
+        <v>202402694</v>
+      </c>
+      <c r="F344" t="s">
+        <v>331</v>
+      </c>
+      <c r="G344" cm="1">
+        <f t="array" ref="G344">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B344)*(curriculum!C:C=C344)*(curriculum!D:D=D344))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="B345">
+        <v>2025</v>
+      </c>
+      <c r="C345">
+        <v>1</v>
+      </c>
+      <c r="D345" t="s">
+        <v>91</v>
+      </c>
+      <c r="E345" s="1">
+        <v>202402758</v>
+      </c>
+      <c r="F345" t="s">
+        <v>332</v>
+      </c>
+      <c r="G345" cm="1">
+        <f t="array" ref="G345">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B345)*(curriculum!C:C=C345)*(curriculum!D:D=D345))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="B346">
+        <v>2025</v>
+      </c>
+      <c r="C346">
+        <v>1</v>
+      </c>
+      <c r="D346" t="s">
+        <v>91</v>
+      </c>
+      <c r="E346" s="1">
+        <v>202402765</v>
+      </c>
+      <c r="F346" t="s">
+        <v>333</v>
+      </c>
+      <c r="G346" cm="1">
+        <f t="array" ref="G346">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B346)*(curriculum!C:C=C346)*(curriculum!D:D=D346))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="B347">
+        <v>2025</v>
+      </c>
+      <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347" t="s">
+        <v>91</v>
+      </c>
+      <c r="E347" s="1">
+        <v>202402768</v>
+      </c>
+      <c r="F347" t="s">
+        <v>334</v>
+      </c>
+      <c r="G347" cm="1">
+        <f t="array" ref="G347">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B347)*(curriculum!C:C=C347)*(curriculum!D:D=D347))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="B348">
+        <v>2025</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348" t="s">
+        <v>91</v>
+      </c>
+      <c r="E348" s="1">
+        <v>202402954</v>
+      </c>
+      <c r="F348" t="s">
+        <v>335</v>
+      </c>
+      <c r="G348" cm="1">
+        <f t="array" ref="G348">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B348)*(curriculum!C:C=C348)*(curriculum!D:D=D348))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="B349">
+        <v>2025</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349" t="s">
+        <v>91</v>
+      </c>
+      <c r="E349" s="1">
+        <v>202402972</v>
+      </c>
+      <c r="F349" t="s">
+        <v>336</v>
+      </c>
+      <c r="G349" cm="1">
+        <f t="array" ref="G349">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B349)*(curriculum!C:C=C349)*(curriculum!D:D=D349))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="B350">
+        <v>2025</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350" t="s">
+        <v>91</v>
+      </c>
+      <c r="E350" s="1">
+        <v>202402992</v>
+      </c>
+      <c r="F350" t="s">
+        <v>337</v>
+      </c>
+      <c r="G350" cm="1">
+        <f t="array" ref="G350">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B350)*(curriculum!C:C=C350)*(curriculum!D:D=D350))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="B351">
+        <v>2025</v>
+      </c>
+      <c r="C351">
+        <v>1</v>
+      </c>
+      <c r="D351" t="s">
+        <v>91</v>
+      </c>
+      <c r="E351" s="1">
+        <v>202403144</v>
+      </c>
+      <c r="F351" t="s">
+        <v>338</v>
+      </c>
+      <c r="G351" cm="1">
+        <f t="array" ref="G351">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B351)*(curriculum!C:C=C351)*(curriculum!D:D=D351))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="B352">
+        <v>2025</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352" t="s">
+        <v>91</v>
+      </c>
+      <c r="E352" s="1">
+        <v>202403229</v>
+      </c>
+      <c r="F352" t="s">
+        <v>339</v>
+      </c>
+      <c r="G352" cm="1">
+        <f t="array" ref="G352">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B352)*(curriculum!C:C=C352)*(curriculum!D:D=D352))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="B353">
+        <v>2025</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353" t="s">
+        <v>91</v>
+      </c>
+      <c r="E353" s="1">
+        <v>202403302</v>
+      </c>
+      <c r="F353" t="s">
+        <v>340</v>
+      </c>
+      <c r="G353" cm="1">
+        <f t="array" ref="G353">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B353)*(curriculum!C:C=C353)*(curriculum!D:D=D353))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="B354">
+        <v>2025</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354" t="s">
+        <v>91</v>
+      </c>
+      <c r="E354" s="1">
+        <v>202403563</v>
+      </c>
+      <c r="F354" t="s">
+        <v>341</v>
+      </c>
+      <c r="G354" cm="1">
+        <f t="array" ref="G354">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B354)*(curriculum!C:C=C354)*(curriculum!D:D=D354))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="B355">
+        <v>2025</v>
+      </c>
+      <c r="C355">
+        <v>1</v>
+      </c>
+      <c r="D355" t="s">
+        <v>91</v>
+      </c>
+      <c r="E355" s="1">
+        <v>202403710</v>
+      </c>
+      <c r="F355" t="s">
+        <v>342</v>
+      </c>
+      <c r="G355" cm="1">
+        <f t="array" ref="G355">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B355)*(curriculum!C:C=C355)*(curriculum!D:D=D355))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="B356">
+        <v>2025</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356" t="s">
+        <v>91</v>
+      </c>
+      <c r="E356" s="1">
+        <v>202403870</v>
+      </c>
+      <c r="F356" t="s">
+        <v>343</v>
+      </c>
+      <c r="G356" cm="1">
+        <f t="array" ref="G356">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B356)*(curriculum!C:C=C356)*(curriculum!D:D=D356))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="B357">
+        <v>2025</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357" t="s">
+        <v>91</v>
+      </c>
+      <c r="E357" s="1">
+        <v>202403888</v>
+      </c>
+      <c r="F357" t="s">
+        <v>344</v>
+      </c>
+      <c r="G357" cm="1">
+        <f t="array" ref="G357">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B357)*(curriculum!C:C=C357)*(curriculum!D:D=D357))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="B358">
+        <v>2025</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358" t="s">
+        <v>91</v>
+      </c>
+      <c r="E358" s="1">
+        <v>202403912</v>
+      </c>
+      <c r="F358" t="s">
+        <v>345</v>
+      </c>
+      <c r="G358" cm="1">
+        <f t="array" ref="G358">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B358)*(curriculum!C:C=C358)*(curriculum!D:D=D358))</f>
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/a_psat/data/study_curriculum_data.xlsx
+++ b/a_psat/data/study_curriculum_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\paedison3\a_psat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0DBE45-E3F7-4712-A057-B80BF5AE253B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB553BFE-BBAF-42F7-A000-5F54829794E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="9270" windowWidth="18975" windowHeight="16200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36000" yWindow="9315" windowWidth="18225" windowHeight="16200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="9" r:id="rId1"/>
@@ -19,6 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">curriculum!$A$1:$H$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">student!$A$1:$H$370</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="358">
   <si>
     <t>year</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -949,15 +950,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>천승현</t>
-  </si>
-  <si>
-    <t>김용섭</t>
-  </si>
-  <si>
-    <t>방희연</t>
-  </si>
-  <si>
     <t>이용훈</t>
   </si>
   <si>
@@ -967,18 +959,9 @@
     <t>윤현지</t>
   </si>
   <si>
-    <t>진결</t>
-  </si>
-  <si>
-    <t>디요르벡</t>
-  </si>
-  <si>
     <t>연상만</t>
   </si>
   <si>
-    <t>김연우</t>
-  </si>
-  <si>
     <t>류홍열</t>
   </si>
   <si>
@@ -988,18 +971,12 @@
     <t>김민중</t>
   </si>
   <si>
-    <t>소재건</t>
-  </si>
-  <si>
     <t>안지수</t>
   </si>
   <si>
     <t>유가호</t>
   </si>
   <si>
-    <t>현용훈</t>
-  </si>
-  <si>
     <t>고민성</t>
   </si>
   <si>
@@ -1015,9 +992,6 @@
     <t>이근영</t>
   </si>
   <si>
-    <t>임성주</t>
-  </si>
-  <si>
     <t>하승리</t>
   </si>
   <si>
@@ -1039,12 +1013,6 @@
     <t>함수아</t>
   </si>
   <si>
-    <t>계민규</t>
-  </si>
-  <si>
-    <t>최영훈</t>
-  </si>
-  <si>
     <t>김민건</t>
   </si>
   <si>
@@ -1060,9 +1028,6 @@
     <t>고은별</t>
   </si>
   <si>
-    <t>문중용</t>
-  </si>
-  <si>
     <t>남예진</t>
   </si>
   <si>
@@ -1084,9 +1049,6 @@
     <t>손주영</t>
   </si>
   <si>
-    <t>김수정</t>
-  </si>
-  <si>
     <t>박채은</t>
   </si>
   <si>
@@ -1114,28 +1076,103 @@
     <t>최유선</t>
   </si>
   <si>
-    <t>장은선</t>
-  </si>
-  <si>
     <t>박채령</t>
   </si>
   <si>
     <t>임수아</t>
   </si>
   <si>
-    <t>성치영</t>
-  </si>
-  <si>
     <t>서승현</t>
   </si>
   <si>
     <t>오원희</t>
   </si>
   <si>
-    <t>김은비</t>
-  </si>
-  <si>
     <t>이동호</t>
+  </si>
+  <si>
+    <t>한동원</t>
+  </si>
+  <si>
+    <t>김상훈</t>
+  </si>
+  <si>
+    <t>허정민</t>
+  </si>
+  <si>
+    <t>신풍경</t>
+  </si>
+  <si>
+    <t>진성주</t>
+  </si>
+  <si>
+    <t>백예빈</t>
+  </si>
+  <si>
+    <t>나세현</t>
+  </si>
+  <si>
+    <t>이지선</t>
+  </si>
+  <si>
+    <t>권태현</t>
+  </si>
+  <si>
+    <t>이수현</t>
+  </si>
+  <si>
+    <t>김주현</t>
+  </si>
+  <si>
+    <t>김희웅</t>
+  </si>
+  <si>
+    <t>이예은</t>
+  </si>
+  <si>
+    <t>김서영</t>
+  </si>
+  <si>
+    <t>심재원</t>
+  </si>
+  <si>
+    <t>문서현</t>
+  </si>
+  <si>
+    <t>정효재</t>
+  </si>
+  <si>
+    <t>나민지</t>
+  </si>
+  <si>
+    <t>안소민</t>
+  </si>
+  <si>
+    <t>김선아</t>
+  </si>
+  <si>
+    <t>소희준</t>
+  </si>
+  <si>
+    <t>이인영</t>
+  </si>
+  <si>
+    <t>김서연</t>
+  </si>
+  <si>
+    <t>강건우</t>
+  </si>
+  <si>
+    <t>오혜인</t>
+  </si>
+  <si>
+    <t>유지수</t>
+  </si>
+  <si>
+    <t>김나연</t>
+  </si>
+  <si>
+    <t>우승현</t>
   </si>
 </sst>
 </file>
@@ -2085,11 +2122,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G358"/>
+  <dimension ref="A1:G419"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A345" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E356" sqref="E356"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E299" sqref="E299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8920,7 +8957,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A285">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B285">
         <v>2025</v>
@@ -8932,10 +8969,10 @@
         <v>90</v>
       </c>
       <c r="E285" s="1">
-        <v>19100380</v>
+        <v>19101092</v>
       </c>
       <c r="F285" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="G285" cm="1">
         <f t="array" ref="G285">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B285)*(curriculum!C:C=C285)*(curriculum!D:D=D285))</f>
@@ -8944,7 +8981,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A286">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B286">
         <v>2025</v>
@@ -8956,10 +8993,10 @@
         <v>90</v>
       </c>
       <c r="E286" s="1">
-        <v>19101088</v>
+        <v>19101134</v>
       </c>
       <c r="F286" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
       <c r="G286" cm="1">
         <f t="array" ref="G286">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B286)*(curriculum!C:C=C286)*(curriculum!D:D=D286))</f>
@@ -8968,7 +9005,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A287">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B287">
         <v>2025</v>
@@ -8980,10 +9017,10 @@
         <v>90</v>
       </c>
       <c r="E287" s="1">
-        <v>19101092</v>
+        <v>20101119</v>
       </c>
       <c r="F287" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="G287" cm="1">
         <f t="array" ref="G287">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B287)*(curriculum!C:C=C287)*(curriculum!D:D=D287))</f>
@@ -8992,7 +9029,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A288">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B288">
         <v>2025</v>
@@ -9004,10 +9041,10 @@
         <v>90</v>
       </c>
       <c r="E288" s="1">
-        <v>19101097</v>
+        <v>20101124</v>
       </c>
       <c r="F288" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="G288" cm="1">
         <f t="array" ref="G288">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B288)*(curriculum!C:C=C288)*(curriculum!D:D=D288))</f>
@@ -9016,7 +9053,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A289">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B289">
         <v>2025</v>
@@ -9028,10 +9065,10 @@
         <v>90</v>
       </c>
       <c r="E289" s="1">
-        <v>19101134</v>
+        <v>20101138</v>
       </c>
       <c r="F289" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="G289" cm="1">
         <f t="array" ref="G289">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B289)*(curriculum!C:C=C289)*(curriculum!D:D=D289))</f>
@@ -9040,7 +9077,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A290">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B290">
         <v>2025</v>
@@ -9052,10 +9089,10 @@
         <v>90</v>
       </c>
       <c r="E290" s="1">
-        <v>20101119</v>
+        <v>20101141</v>
       </c>
       <c r="F290" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="G290" cm="1">
         <f t="array" ref="G290">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B290)*(curriculum!C:C=C290)*(curriculum!D:D=D290))</f>
@@ -9064,7 +9101,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A291">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B291">
         <v>2025</v>
@@ -9076,10 +9113,10 @@
         <v>90</v>
       </c>
       <c r="E291" s="1">
-        <v>20101124</v>
+        <v>21101083</v>
       </c>
       <c r="F291" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="G291" cm="1">
         <f t="array" ref="G291">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B291)*(curriculum!C:C=C291)*(curriculum!D:D=D291))</f>
@@ -9088,7 +9125,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A292">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B292">
         <v>2025</v>
@@ -9100,10 +9137,10 @@
         <v>90</v>
       </c>
       <c r="E292" s="1">
-        <v>20101138</v>
+        <v>23101615</v>
       </c>
       <c r="F292" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G292" cm="1">
         <f t="array" ref="G292">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B292)*(curriculum!C:C=C292)*(curriculum!D:D=D292))</f>
@@ -9112,7 +9149,7 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A293">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="B293">
         <v>2025</v>
@@ -9124,10 +9161,10 @@
         <v>90</v>
       </c>
       <c r="E293" s="1">
-        <v>20101141</v>
+        <v>25110001</v>
       </c>
       <c r="F293" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="G293" cm="1">
         <f t="array" ref="G293">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B293)*(curriculum!C:C=C293)*(curriculum!D:D=D293))</f>
@@ -9136,7 +9173,7 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A294">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B294">
         <v>2025</v>
@@ -9145,22 +9182,22 @@
         <v>1</v>
       </c>
       <c r="D294" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E294" s="1">
-        <v>21101083</v>
+        <v>201802199</v>
       </c>
       <c r="F294" t="s">
-        <v>252</v>
+        <v>286</v>
       </c>
       <c r="G294" cm="1">
         <f t="array" ref="G294">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B294)*(curriculum!C:C=C294)*(curriculum!D:D=D294))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A295">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B295">
         <v>2025</v>
@@ -9169,22 +9206,22 @@
         <v>1</v>
       </c>
       <c r="D295" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E295" s="1">
-        <v>23101615</v>
+        <v>202001284</v>
       </c>
       <c r="F295" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G295" cm="1">
         <f t="array" ref="G295">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B295)*(curriculum!C:C=C295)*(curriculum!D:D=D295))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A296">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B296">
         <v>2025</v>
@@ -9193,22 +9230,22 @@
         <v>1</v>
       </c>
       <c r="D296" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E296" s="1">
-        <v>23102459</v>
+        <v>202002554</v>
       </c>
       <c r="F296" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G296" cm="1">
         <f t="array" ref="G296">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B296)*(curriculum!C:C=C296)*(curriculum!D:D=D296))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A297">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="B297">
         <v>2025</v>
@@ -9217,22 +9254,22 @@
         <v>1</v>
       </c>
       <c r="D297" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E297" s="1">
-        <v>24110080</v>
+        <v>202100638</v>
       </c>
       <c r="F297" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G297" cm="1">
         <f t="array" ref="G297">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B297)*(curriculum!C:C=C297)*(curriculum!D:D=D297))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A298">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B298">
         <v>2025</v>
@@ -9241,22 +9278,22 @@
         <v>1</v>
       </c>
       <c r="D298" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E298" s="1">
-        <v>25110001</v>
+        <v>202102012</v>
       </c>
       <c r="F298" t="s">
-        <v>183</v>
+        <v>290</v>
       </c>
       <c r="G298" cm="1">
         <f t="array" ref="G298">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B298)*(curriculum!C:C=C298)*(curriculum!D:D=D298))</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A299">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B299">
         <v>2025</v>
@@ -9268,7 +9305,7 @@
         <v>91</v>
       </c>
       <c r="E299" s="1">
-        <v>201802199</v>
+        <v>202102180</v>
       </c>
       <c r="F299" t="s">
         <v>291</v>
@@ -9280,7 +9317,7 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A300">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B300">
         <v>2025</v>
@@ -9292,7 +9329,7 @@
         <v>91</v>
       </c>
       <c r="E300" s="1">
-        <v>201900908</v>
+        <v>202200275</v>
       </c>
       <c r="F300" t="s">
         <v>292</v>
@@ -9304,7 +9341,7 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A301">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B301">
         <v>2025</v>
@@ -9316,7 +9353,7 @@
         <v>91</v>
       </c>
       <c r="E301" s="1">
-        <v>202001284</v>
+        <v>202201078</v>
       </c>
       <c r="F301" t="s">
         <v>293</v>
@@ -9328,7 +9365,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A302">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B302">
         <v>2025</v>
@@ -9340,7 +9377,7 @@
         <v>91</v>
       </c>
       <c r="E302" s="1">
-        <v>202002554</v>
+        <v>202201330</v>
       </c>
       <c r="F302" t="s">
         <v>294</v>
@@ -9352,7 +9389,7 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A303">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B303">
         <v>2025</v>
@@ -9364,7 +9401,7 @@
         <v>91</v>
       </c>
       <c r="E303" s="1">
-        <v>202100638</v>
+        <v>202202030</v>
       </c>
       <c r="F303" t="s">
         <v>295</v>
@@ -9376,7 +9413,7 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A304">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B304">
         <v>2025</v>
@@ -9388,10 +9425,10 @@
         <v>91</v>
       </c>
       <c r="E304" s="1">
-        <v>202101786</v>
+        <v>202202077</v>
       </c>
       <c r="F304" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
       <c r="G304" cm="1">
         <f t="array" ref="G304">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B304)*(curriculum!C:C=C304)*(curriculum!D:D=D304))</f>
@@ -9400,7 +9437,7 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A305">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="B305">
         <v>2025</v>
@@ -9412,10 +9449,10 @@
         <v>91</v>
       </c>
       <c r="E305" s="1">
-        <v>202102012</v>
+        <v>202202354</v>
       </c>
       <c r="F305" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G305" cm="1">
         <f t="array" ref="G305">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B305)*(curriculum!C:C=C305)*(curriculum!D:D=D305))</f>
@@ -9424,7 +9461,7 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A306">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B306">
         <v>2025</v>
@@ -9436,10 +9473,10 @@
         <v>91</v>
       </c>
       <c r="E306" s="1">
-        <v>202102180</v>
+        <v>202203411</v>
       </c>
       <c r="F306" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="G306" cm="1">
         <f t="array" ref="G306">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B306)*(curriculum!C:C=C306)*(curriculum!D:D=D306))</f>
@@ -9448,7 +9485,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A307">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B307">
         <v>2025</v>
@@ -9460,10 +9497,10 @@
         <v>91</v>
       </c>
       <c r="E307" s="1">
-        <v>202103696</v>
+        <v>202203682</v>
       </c>
       <c r="F307" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G307" cm="1">
         <f t="array" ref="G307">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B307)*(curriculum!C:C=C307)*(curriculum!D:D=D307))</f>
@@ -9472,7 +9509,7 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A308">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="B308">
         <v>2025</v>
@@ -9484,10 +9521,10 @@
         <v>91</v>
       </c>
       <c r="E308" s="1">
-        <v>202200275</v>
+        <v>202300799</v>
       </c>
       <c r="F308" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G308" cm="1">
         <f t="array" ref="G308">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B308)*(curriculum!C:C=C308)*(curriculum!D:D=D308))</f>
@@ -9496,7 +9533,7 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A309">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B309">
         <v>2025</v>
@@ -9508,10 +9545,10 @@
         <v>91</v>
       </c>
       <c r="E309" s="1">
-        <v>202201078</v>
+        <v>202301276</v>
       </c>
       <c r="F309" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G309" cm="1">
         <f t="array" ref="G309">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B309)*(curriculum!C:C=C309)*(curriculum!D:D=D309))</f>
@@ -9520,7 +9557,7 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A310">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B310">
         <v>2025</v>
@@ -9532,10 +9569,10 @@
         <v>91</v>
       </c>
       <c r="E310" s="1">
-        <v>202201330</v>
+        <v>202301480</v>
       </c>
       <c r="F310" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G310" cm="1">
         <f t="array" ref="G310">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B310)*(curriculum!C:C=C310)*(curriculum!D:D=D310))</f>
@@ -9544,7 +9581,7 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A311">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B311">
         <v>2025</v>
@@ -9556,10 +9593,10 @@
         <v>91</v>
       </c>
       <c r="E311" s="1">
-        <v>202202030</v>
+        <v>202301777</v>
       </c>
       <c r="F311" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G311" cm="1">
         <f t="array" ref="G311">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B311)*(curriculum!C:C=C311)*(curriculum!D:D=D311))</f>
@@ -9568,7 +9605,7 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A312">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="B312">
         <v>2025</v>
@@ -9580,10 +9617,10 @@
         <v>91</v>
       </c>
       <c r="E312" s="1">
-        <v>202202077</v>
+        <v>202302421</v>
       </c>
       <c r="F312" t="s">
-        <v>270</v>
+        <v>302</v>
       </c>
       <c r="G312" cm="1">
         <f t="array" ref="G312">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B312)*(curriculum!C:C=C312)*(curriculum!D:D=D312))</f>
@@ -9592,7 +9629,7 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A313">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="B313">
         <v>2025</v>
@@ -9604,10 +9641,10 @@
         <v>91</v>
       </c>
       <c r="E313" s="1">
-        <v>202202354</v>
+        <v>202302457</v>
       </c>
       <c r="F313" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G313" cm="1">
         <f t="array" ref="G313">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B313)*(curriculum!C:C=C313)*(curriculum!D:D=D313))</f>
@@ -9616,7 +9653,7 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A314">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B314">
         <v>2025</v>
@@ -9628,10 +9665,10 @@
         <v>91</v>
       </c>
       <c r="E314" s="1">
-        <v>202202942</v>
+        <v>202303636</v>
       </c>
       <c r="F314" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G314" cm="1">
         <f t="array" ref="G314">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B314)*(curriculum!C:C=C314)*(curriculum!D:D=D314))</f>
@@ -9640,7 +9677,7 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A315">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="B315">
         <v>2025</v>
@@ -9652,10 +9689,10 @@
         <v>91</v>
       </c>
       <c r="E315" s="1">
-        <v>202203411</v>
+        <v>202303694</v>
       </c>
       <c r="F315" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="G315" cm="1">
         <f t="array" ref="G315">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B315)*(curriculum!C:C=C315)*(curriculum!D:D=D315))</f>
@@ -9664,7 +9701,7 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A316">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B316">
         <v>2025</v>
@@ -9676,10 +9713,10 @@
         <v>91</v>
       </c>
       <c r="E316" s="1">
-        <v>202203682</v>
+        <v>202304644</v>
       </c>
       <c r="F316" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G316" cm="1">
         <f t="array" ref="G316">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B316)*(curriculum!C:C=C316)*(curriculum!D:D=D316))</f>
@@ -9688,7 +9725,7 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A317">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="B317">
         <v>2025</v>
@@ -9700,10 +9737,10 @@
         <v>91</v>
       </c>
       <c r="E317" s="1">
-        <v>202300799</v>
+        <v>202304647</v>
       </c>
       <c r="F317" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G317" cm="1">
         <f t="array" ref="G317">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B317)*(curriculum!C:C=C317)*(curriculum!D:D=D317))</f>
@@ -9712,7 +9749,7 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A318">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="B318">
         <v>2025</v>
@@ -9724,10 +9761,10 @@
         <v>91</v>
       </c>
       <c r="E318" s="1">
-        <v>202301276</v>
+        <v>202304730</v>
       </c>
       <c r="F318" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G318" cm="1">
         <f t="array" ref="G318">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B318)*(curriculum!C:C=C318)*(curriculum!D:D=D318))</f>
@@ -9736,7 +9773,7 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A319">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="B319">
         <v>2025</v>
@@ -9748,10 +9785,10 @@
         <v>91</v>
       </c>
       <c r="E319" s="1">
-        <v>202301480</v>
+        <v>202400185</v>
       </c>
       <c r="F319" t="s">
-        <v>309</v>
+        <v>142</v>
       </c>
       <c r="G319" cm="1">
         <f t="array" ref="G319">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B319)*(curriculum!C:C=C319)*(curriculum!D:D=D319))</f>
@@ -9760,7 +9797,7 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A320">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="B320">
         <v>2025</v>
@@ -9772,10 +9809,10 @@
         <v>91</v>
       </c>
       <c r="E320" s="1">
-        <v>202301777</v>
+        <v>202400387</v>
       </c>
       <c r="F320" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G320" cm="1">
         <f t="array" ref="G320">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B320)*(curriculum!C:C=C320)*(curriculum!D:D=D320))</f>
@@ -9784,7 +9821,7 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A321">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B321">
         <v>2025</v>
@@ -9796,10 +9833,10 @@
         <v>91</v>
       </c>
       <c r="E321" s="1">
-        <v>202302421</v>
+        <v>202400514</v>
       </c>
       <c r="F321" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G321" cm="1">
         <f t="array" ref="G321">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B321)*(curriculum!C:C=C321)*(curriculum!D:D=D321))</f>
@@ -9808,7 +9845,7 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A322">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B322">
         <v>2025</v>
@@ -9820,10 +9857,10 @@
         <v>91</v>
       </c>
       <c r="E322" s="1">
-        <v>202302457</v>
+        <v>202400685</v>
       </c>
       <c r="F322" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G322" cm="1">
         <f t="array" ref="G322">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B322)*(curriculum!C:C=C322)*(curriculum!D:D=D322))</f>
@@ -9832,7 +9869,7 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A323">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B323">
         <v>2025</v>
@@ -9844,10 +9881,10 @@
         <v>91</v>
       </c>
       <c r="E323" s="1">
-        <v>202302747</v>
+        <v>202400686</v>
       </c>
       <c r="F323" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G323" cm="1">
         <f t="array" ref="G323">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B323)*(curriculum!C:C=C323)*(curriculum!D:D=D323))</f>
@@ -9856,7 +9893,7 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A324">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B324">
         <v>2025</v>
@@ -9868,10 +9905,10 @@
         <v>91</v>
       </c>
       <c r="E324" s="1">
-        <v>202303463</v>
+        <v>202400720</v>
       </c>
       <c r="F324" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G324" cm="1">
         <f t="array" ref="G324">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B324)*(curriculum!C:C=C324)*(curriculum!D:D=D324))</f>
@@ -9880,7 +9917,7 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A325">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B325">
         <v>2025</v>
@@ -9892,10 +9929,10 @@
         <v>91</v>
       </c>
       <c r="E325" s="1">
-        <v>202303636</v>
+        <v>202400834</v>
       </c>
       <c r="F325" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G325" cm="1">
         <f t="array" ref="G325">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B325)*(curriculum!C:C=C325)*(curriculum!D:D=D325))</f>
@@ -9904,7 +9941,7 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A326">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="B326">
         <v>2025</v>
@@ -9916,10 +9953,10 @@
         <v>91</v>
       </c>
       <c r="E326" s="1">
-        <v>202303694</v>
+        <v>202401153</v>
       </c>
       <c r="F326" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="G326" cm="1">
         <f t="array" ref="G326">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B326)*(curriculum!C:C=C326)*(curriculum!D:D=D326))</f>
@@ -9928,7 +9965,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A327">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="B327">
         <v>2025</v>
@@ -9940,10 +9977,10 @@
         <v>91</v>
       </c>
       <c r="E327" s="1">
-        <v>202304644</v>
+        <v>202401223</v>
       </c>
       <c r="F327" t="s">
-        <v>316</v>
+        <v>115</v>
       </c>
       <c r="G327" cm="1">
         <f t="array" ref="G327">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B327)*(curriculum!C:C=C327)*(curriculum!D:D=D327))</f>
@@ -9952,7 +9989,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A328">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B328">
         <v>2025</v>
@@ -9964,10 +10001,10 @@
         <v>91</v>
       </c>
       <c r="E328" s="1">
-        <v>202304647</v>
+        <v>202401469</v>
       </c>
       <c r="F328" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G328" cm="1">
         <f t="array" ref="G328">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B328)*(curriculum!C:C=C328)*(curriculum!D:D=D328))</f>
@@ -9976,7 +10013,7 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A329">
-        <v>328</v>
+        <v>341</v>
       </c>
       <c r="B329">
         <v>2025</v>
@@ -9988,10 +10025,10 @@
         <v>91</v>
       </c>
       <c r="E329" s="1">
-        <v>202304730</v>
+        <v>202401947</v>
       </c>
       <c r="F329" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G329" cm="1">
         <f t="array" ref="G329">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B329)*(curriculum!C:C=C329)*(curriculum!D:D=D329))</f>
@@ -10000,7 +10037,7 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A330">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B330">
         <v>2025</v>
@@ -10012,10 +10049,10 @@
         <v>91</v>
       </c>
       <c r="E330" s="1">
-        <v>202400185</v>
+        <v>202402456</v>
       </c>
       <c r="F330" t="s">
-        <v>142</v>
+        <v>317</v>
       </c>
       <c r="G330" cm="1">
         <f t="array" ref="G330">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B330)*(curriculum!C:C=C330)*(curriculum!D:D=D330))</f>
@@ -10024,7 +10061,7 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A331">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="B331">
         <v>2025</v>
@@ -10036,10 +10073,10 @@
         <v>91</v>
       </c>
       <c r="E331" s="1">
-        <v>202400387</v>
+        <v>202402694</v>
       </c>
       <c r="F331" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G331" cm="1">
         <f t="array" ref="G331">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B331)*(curriculum!C:C=C331)*(curriculum!D:D=D331))</f>
@@ -10048,7 +10085,7 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A332">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B332">
         <v>2025</v>
@@ -10060,10 +10097,10 @@
         <v>91</v>
       </c>
       <c r="E332" s="1">
-        <v>202400388</v>
+        <v>202402758</v>
       </c>
       <c r="F332" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G332" cm="1">
         <f t="array" ref="G332">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B332)*(curriculum!C:C=C332)*(curriculum!D:D=D332))</f>
@@ -10072,7 +10109,7 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A333">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="B333">
         <v>2025</v>
@@ -10084,10 +10121,10 @@
         <v>91</v>
       </c>
       <c r="E333" s="1">
-        <v>202400514</v>
+        <v>202402765</v>
       </c>
       <c r="F333" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G333" cm="1">
         <f t="array" ref="G333">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B333)*(curriculum!C:C=C333)*(curriculum!D:D=D333))</f>
@@ -10096,7 +10133,7 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A334">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B334">
         <v>2025</v>
@@ -10108,10 +10145,10 @@
         <v>91</v>
       </c>
       <c r="E334" s="1">
-        <v>202400685</v>
+        <v>202402768</v>
       </c>
       <c r="F334" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G334" cm="1">
         <f t="array" ref="G334">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B334)*(curriculum!C:C=C334)*(curriculum!D:D=D334))</f>
@@ -10120,7 +10157,7 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A335">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="B335">
         <v>2025</v>
@@ -10132,10 +10169,10 @@
         <v>91</v>
       </c>
       <c r="E335" s="1">
-        <v>202400686</v>
+        <v>202402954</v>
       </c>
       <c r="F335" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G335" cm="1">
         <f t="array" ref="G335">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B335)*(curriculum!C:C=C335)*(curriculum!D:D=D335))</f>
@@ -10144,7 +10181,7 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A336">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B336">
         <v>2025</v>
@@ -10156,10 +10193,10 @@
         <v>91</v>
       </c>
       <c r="E336" s="1">
-        <v>202400720</v>
+        <v>202402972</v>
       </c>
       <c r="F336" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G336" cm="1">
         <f t="array" ref="G336">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B336)*(curriculum!C:C=C336)*(curriculum!D:D=D336))</f>
@@ -10168,7 +10205,7 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A337">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="B337">
         <v>2025</v>
@@ -10180,10 +10217,10 @@
         <v>91</v>
       </c>
       <c r="E337" s="1">
-        <v>202400834</v>
+        <v>202402992</v>
       </c>
       <c r="F337" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G337" cm="1">
         <f t="array" ref="G337">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B337)*(curriculum!C:C=C337)*(curriculum!D:D=D337))</f>
@@ -10192,7 +10229,7 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A338">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B338">
         <v>2025</v>
@@ -10204,10 +10241,10 @@
         <v>91</v>
       </c>
       <c r="E338" s="1">
-        <v>202401153</v>
+        <v>202403229</v>
       </c>
       <c r="F338" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G338" cm="1">
         <f t="array" ref="G338">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B338)*(curriculum!C:C=C338)*(curriculum!D:D=D338))</f>
@@ -10216,7 +10253,7 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A339">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="B339">
         <v>2025</v>
@@ -10228,10 +10265,10 @@
         <v>91</v>
       </c>
       <c r="E339" s="1">
-        <v>202401223</v>
+        <v>202403302</v>
       </c>
       <c r="F339" t="s">
-        <v>115</v>
+        <v>326</v>
       </c>
       <c r="G339" cm="1">
         <f t="array" ref="G339">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B339)*(curriculum!C:C=C339)*(curriculum!D:D=D339))</f>
@@ -10240,7 +10277,7 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A340">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="B340">
         <v>2025</v>
@@ -10252,7 +10289,7 @@
         <v>91</v>
       </c>
       <c r="E340" s="1">
-        <v>202401469</v>
+        <v>202403710</v>
       </c>
       <c r="F340" t="s">
         <v>327</v>
@@ -10264,7 +10301,7 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A341">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="B341">
         <v>2025</v>
@@ -10276,7 +10313,7 @@
         <v>91</v>
       </c>
       <c r="E341" s="1">
-        <v>202401831</v>
+        <v>202403870</v>
       </c>
       <c r="F341" t="s">
         <v>328</v>
@@ -10288,7 +10325,7 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A342">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="B342">
         <v>2025</v>
@@ -10300,7 +10337,7 @@
         <v>91</v>
       </c>
       <c r="E342" s="1">
-        <v>202401947</v>
+        <v>202403912</v>
       </c>
       <c r="F342" t="s">
         <v>329</v>
@@ -10312,7 +10349,7 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A343">
-        <v>342</v>
+        <v>358</v>
       </c>
       <c r="B343">
         <v>2025</v>
@@ -10321,22 +10358,22 @@
         <v>1</v>
       </c>
       <c r="D343" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E343" s="1">
-        <v>202402456</v>
+        <v>17101038</v>
       </c>
       <c r="F343" t="s">
         <v>330</v>
       </c>
       <c r="G343" cm="1">
         <f t="array" ref="G343">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B343)*(curriculum!C:C=C343)*(curriculum!D:D=D343))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A344">
-        <v>343</v>
+        <v>359</v>
       </c>
       <c r="B344">
         <v>2025</v>
@@ -10345,22 +10382,22 @@
         <v>1</v>
       </c>
       <c r="D344" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E344" s="1">
-        <v>202402694</v>
+        <v>19101050</v>
       </c>
       <c r="F344" t="s">
         <v>331</v>
       </c>
       <c r="G344" cm="1">
         <f t="array" ref="G344">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B344)*(curriculum!C:C=C344)*(curriculum!D:D=D344))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A345">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="B345">
         <v>2025</v>
@@ -10369,22 +10406,22 @@
         <v>1</v>
       </c>
       <c r="D345" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E345" s="1">
-        <v>202402758</v>
+        <v>20100406</v>
       </c>
       <c r="F345" t="s">
         <v>332</v>
       </c>
       <c r="G345" cm="1">
         <f t="array" ref="G345">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B345)*(curriculum!C:C=C345)*(curriculum!D:D=D345))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A346">
-        <v>345</v>
+        <v>361</v>
       </c>
       <c r="B346">
         <v>2025</v>
@@ -10393,22 +10430,22 @@
         <v>1</v>
       </c>
       <c r="D346" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E346" s="1">
-        <v>202402765</v>
+        <v>21101000</v>
       </c>
       <c r="F346" t="s">
         <v>333</v>
       </c>
       <c r="G346" cm="1">
         <f t="array" ref="G346">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B346)*(curriculum!C:C=C346)*(curriculum!D:D=D346))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A347">
-        <v>346</v>
+        <v>362</v>
       </c>
       <c r="B347">
         <v>2025</v>
@@ -10417,22 +10454,22 @@
         <v>1</v>
       </c>
       <c r="D347" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E347" s="1">
-        <v>202402768</v>
+        <v>21102101</v>
       </c>
       <c r="F347" t="s">
         <v>334</v>
       </c>
       <c r="G347" cm="1">
         <f t="array" ref="G347">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B347)*(curriculum!C:C=C347)*(curriculum!D:D=D347))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A348">
-        <v>347</v>
+        <v>363</v>
       </c>
       <c r="B348">
         <v>2025</v>
@@ -10441,22 +10478,22 @@
         <v>1</v>
       </c>
       <c r="D348" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E348" s="1">
-        <v>202402954</v>
+        <v>22100434</v>
       </c>
       <c r="F348" t="s">
         <v>335</v>
       </c>
       <c r="G348" cm="1">
         <f t="array" ref="G348">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B348)*(curriculum!C:C=C348)*(curriculum!D:D=D348))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A349">
-        <v>348</v>
+        <v>364</v>
       </c>
       <c r="B349">
         <v>2025</v>
@@ -10465,22 +10502,22 @@
         <v>1</v>
       </c>
       <c r="D349" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E349" s="1">
-        <v>202402972</v>
+        <v>24110065</v>
       </c>
       <c r="F349" t="s">
         <v>336</v>
       </c>
       <c r="G349" cm="1">
         <f t="array" ref="G349">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B349)*(curriculum!C:C=C349)*(curriculum!D:D=D349))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A350">
-        <v>349</v>
+        <v>365</v>
       </c>
       <c r="B350">
         <v>2025</v>
@@ -10489,22 +10526,22 @@
         <v>1</v>
       </c>
       <c r="D350" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E350" s="1">
-        <v>202402992</v>
+        <v>24110069</v>
       </c>
       <c r="F350" t="s">
         <v>337</v>
       </c>
       <c r="G350" cm="1">
         <f t="array" ref="G350">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B350)*(curriculum!C:C=C350)*(curriculum!D:D=D350))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A351">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="B351">
         <v>2025</v>
@@ -10513,22 +10550,22 @@
         <v>1</v>
       </c>
       <c r="D351" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E351" s="1">
-        <v>202403144</v>
+        <v>25100087</v>
       </c>
       <c r="F351" t="s">
         <v>338</v>
       </c>
       <c r="G351" cm="1">
         <f t="array" ref="G351">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B351)*(curriculum!C:C=C351)*(curriculum!D:D=D351))</f>
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A352">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="B352">
         <v>2025</v>
@@ -10540,7 +10577,7 @@
         <v>91</v>
       </c>
       <c r="E352" s="1">
-        <v>202403229</v>
+        <v>201802611</v>
       </c>
       <c r="F352" t="s">
         <v>339</v>
@@ -10552,7 +10589,7 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A353">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="B353">
         <v>2025</v>
@@ -10564,7 +10601,7 @@
         <v>91</v>
       </c>
       <c r="E353" s="1">
-        <v>202403302</v>
+        <v>202000958</v>
       </c>
       <c r="F353" t="s">
         <v>340</v>
@@ -10576,7 +10613,7 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A354">
-        <v>353</v>
+        <v>369</v>
       </c>
       <c r="B354">
         <v>2025</v>
@@ -10588,7 +10625,7 @@
         <v>91</v>
       </c>
       <c r="E354" s="1">
-        <v>202403563</v>
+        <v>202001195</v>
       </c>
       <c r="F354" t="s">
         <v>341</v>
@@ -10600,7 +10637,7 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A355">
-        <v>354</v>
+        <v>370</v>
       </c>
       <c r="B355">
         <v>2025</v>
@@ -10612,7 +10649,7 @@
         <v>91</v>
       </c>
       <c r="E355" s="1">
-        <v>202403710</v>
+        <v>202002584</v>
       </c>
       <c r="F355" t="s">
         <v>342</v>
@@ -10624,7 +10661,7 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A356">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="B356">
         <v>2025</v>
@@ -10636,7 +10673,7 @@
         <v>91</v>
       </c>
       <c r="E356" s="1">
-        <v>202403870</v>
+        <v>202100689</v>
       </c>
       <c r="F356" t="s">
         <v>343</v>
@@ -10648,7 +10685,7 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A357">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="B357">
         <v>2025</v>
@@ -10660,7 +10697,7 @@
         <v>91</v>
       </c>
       <c r="E357" s="1">
-        <v>202403888</v>
+        <v>202101962</v>
       </c>
       <c r="F357" t="s">
         <v>344</v>
@@ -10672,7 +10709,7 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A358">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="B358">
         <v>2025</v>
@@ -10684,7 +10721,7 @@
         <v>91</v>
       </c>
       <c r="E358" s="1">
-        <v>202403912</v>
+        <v>202201258</v>
       </c>
       <c r="F358" t="s">
         <v>345</v>
@@ -10693,6 +10730,441 @@
         <f t="array" ref="G358">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B358)*(curriculum!C:C=C358)*(curriculum!D:D=D358))</f>
         <v>16</v>
       </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A359">
+        <v>374</v>
+      </c>
+      <c r="B359">
+        <v>2025</v>
+      </c>
+      <c r="C359">
+        <v>1</v>
+      </c>
+      <c r="D359" t="s">
+        <v>91</v>
+      </c>
+      <c r="E359" s="1">
+        <v>202203287</v>
+      </c>
+      <c r="F359" t="s">
+        <v>346</v>
+      </c>
+      <c r="G359" cm="1">
+        <f t="array" ref="G359">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B359)*(curriculum!C:C=C359)*(curriculum!D:D=D359))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A360">
+        <v>375</v>
+      </c>
+      <c r="B360">
+        <v>2025</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360" t="s">
+        <v>91</v>
+      </c>
+      <c r="E360" s="1">
+        <v>202301367</v>
+      </c>
+      <c r="F360" t="s">
+        <v>347</v>
+      </c>
+      <c r="G360" cm="1">
+        <f t="array" ref="G360">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B360)*(curriculum!C:C=C360)*(curriculum!D:D=D360))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A361">
+        <v>376</v>
+      </c>
+      <c r="B361">
+        <v>2025</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361" t="s">
+        <v>91</v>
+      </c>
+      <c r="E361" s="1">
+        <v>202301510</v>
+      </c>
+      <c r="F361" t="s">
+        <v>348</v>
+      </c>
+      <c r="G361" cm="1">
+        <f t="array" ref="G361">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B361)*(curriculum!C:C=C361)*(curriculum!D:D=D361))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A362">
+        <v>377</v>
+      </c>
+      <c r="B362">
+        <v>2025</v>
+      </c>
+      <c r="C362">
+        <v>1</v>
+      </c>
+      <c r="D362" t="s">
+        <v>91</v>
+      </c>
+      <c r="E362" s="1">
+        <v>202301772</v>
+      </c>
+      <c r="F362" t="s">
+        <v>349</v>
+      </c>
+      <c r="G362" cm="1">
+        <f t="array" ref="G362">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B362)*(curriculum!C:C=C362)*(curriculum!D:D=D362))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A363">
+        <v>378</v>
+      </c>
+      <c r="B363">
+        <v>2025</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363" t="s">
+        <v>91</v>
+      </c>
+      <c r="E363" s="1">
+        <v>202302478</v>
+      </c>
+      <c r="F363" t="s">
+        <v>350</v>
+      </c>
+      <c r="G363" cm="1">
+        <f t="array" ref="G363">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B363)*(curriculum!C:C=C363)*(curriculum!D:D=D363))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A364">
+        <v>379</v>
+      </c>
+      <c r="B364">
+        <v>2025</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364" t="s">
+        <v>91</v>
+      </c>
+      <c r="E364" s="1">
+        <v>202303253</v>
+      </c>
+      <c r="F364" t="s">
+        <v>351</v>
+      </c>
+      <c r="G364" cm="1">
+        <f t="array" ref="G364">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B364)*(curriculum!C:C=C364)*(curriculum!D:D=D364))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A365">
+        <v>380</v>
+      </c>
+      <c r="B365">
+        <v>2025</v>
+      </c>
+      <c r="C365">
+        <v>1</v>
+      </c>
+      <c r="D365" t="s">
+        <v>91</v>
+      </c>
+      <c r="E365" s="1">
+        <v>202303266</v>
+      </c>
+      <c r="F365" t="s">
+        <v>352</v>
+      </c>
+      <c r="G365" cm="1">
+        <f t="array" ref="G365">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B365)*(curriculum!C:C=C365)*(curriculum!D:D=D365))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A366">
+        <v>381</v>
+      </c>
+      <c r="B366">
+        <v>2025</v>
+      </c>
+      <c r="C366">
+        <v>1</v>
+      </c>
+      <c r="D366" t="s">
+        <v>91</v>
+      </c>
+      <c r="E366" s="1">
+        <v>202304288</v>
+      </c>
+      <c r="F366" t="s">
+        <v>353</v>
+      </c>
+      <c r="G366" cm="1">
+        <f t="array" ref="G366">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B366)*(curriculum!C:C=C366)*(curriculum!D:D=D366))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A367">
+        <v>382</v>
+      </c>
+      <c r="B367">
+        <v>2025</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367" t="s">
+        <v>91</v>
+      </c>
+      <c r="E367" s="1">
+        <v>202304422</v>
+      </c>
+      <c r="F367" t="s">
+        <v>354</v>
+      </c>
+      <c r="G367" cm="1">
+        <f t="array" ref="G367">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B367)*(curriculum!C:C=C367)*(curriculum!D:D=D367))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A368">
+        <v>383</v>
+      </c>
+      <c r="B368">
+        <v>2025</v>
+      </c>
+      <c r="C368">
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>91</v>
+      </c>
+      <c r="E368" s="1">
+        <v>202304467</v>
+      </c>
+      <c r="F368" t="s">
+        <v>355</v>
+      </c>
+      <c r="G368" cm="1">
+        <f t="array" ref="G368">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B368)*(curriculum!C:C=C368)*(curriculum!D:D=D368))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A369">
+        <v>384</v>
+      </c>
+      <c r="B369">
+        <v>2025</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369" t="s">
+        <v>91</v>
+      </c>
+      <c r="E369" s="1">
+        <v>202401203</v>
+      </c>
+      <c r="F369" t="s">
+        <v>356</v>
+      </c>
+      <c r="G369" cm="1">
+        <f t="array" ref="G369">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B369)*(curriculum!C:C=C369)*(curriculum!D:D=D369))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A370">
+        <v>385</v>
+      </c>
+      <c r="B370">
+        <v>2025</v>
+      </c>
+      <c r="C370">
+        <v>1</v>
+      </c>
+      <c r="D370" t="s">
+        <v>91</v>
+      </c>
+      <c r="E370" s="1">
+        <v>202403200</v>
+      </c>
+      <c r="F370" t="s">
+        <v>357</v>
+      </c>
+      <c r="G370" cm="1">
+        <f t="array" ref="G370">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B370)*(curriculum!C:C=C370)*(curriculum!D:D=D370))</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E371"/>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E372"/>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E373"/>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E374"/>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E375"/>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E376"/>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E377"/>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E378"/>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E379"/>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E380"/>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E381"/>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E382"/>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E383"/>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E384"/>
+    </row>
+    <row r="385" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E385"/>
+    </row>
+    <row r="386" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E386"/>
+    </row>
+    <row r="387" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E387"/>
+    </row>
+    <row r="388" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E388"/>
+    </row>
+    <row r="389" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E389"/>
+    </row>
+    <row r="390" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E390"/>
+    </row>
+    <row r="391" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E391"/>
+    </row>
+    <row r="392" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E392"/>
+    </row>
+    <row r="393" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E393"/>
+    </row>
+    <row r="394" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E394"/>
+    </row>
+    <row r="395" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E395"/>
+    </row>
+    <row r="396" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E396"/>
+    </row>
+    <row r="397" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E397"/>
+    </row>
+    <row r="398" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E398"/>
+    </row>
+    <row r="399" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E399"/>
+    </row>
+    <row r="400" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E400"/>
+    </row>
+    <row r="401" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E401"/>
+    </row>
+    <row r="402" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E402"/>
+    </row>
+    <row r="403" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E403"/>
+    </row>
+    <row r="404" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E404"/>
+    </row>
+    <row r="405" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E405"/>
+    </row>
+    <row r="406" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E406"/>
+    </row>
+    <row r="407" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E407"/>
+    </row>
+    <row r="408" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E408"/>
+    </row>
+    <row r="409" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E409"/>
+    </row>
+    <row r="410" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E410"/>
+    </row>
+    <row r="411" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E411"/>
+    </row>
+    <row r="412" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E412"/>
+    </row>
+    <row r="413" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E413"/>
+    </row>
+    <row r="414" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E414"/>
+    </row>
+    <row r="415" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E415"/>
+    </row>
+    <row r="416" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E416"/>
+    </row>
+    <row r="417" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E417"/>
+    </row>
+    <row r="418" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E418"/>
+    </row>
+    <row r="419" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E419"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/a_psat/data/study_curriculum_data.xlsx
+++ b/a_psat/data/study_curriculum_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\paedison3\a_psat\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\paedison3\a_psat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9EAF20-6AAF-48E9-8A84-2FEE9060BB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB728130-3053-46FD-A90C-2E7AD7C2A3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27570" yWindow="9270" windowWidth="19020" windowHeight="16200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="600" windowWidth="12600" windowHeight="15150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -1172,19 +1172,16 @@
     <t>우승현</t>
   </si>
   <si>
+    <t>배재용</t>
+  </si>
+  <si>
     <t>김가영</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>장윤서</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>최민지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>배재용</t>
   </si>
 </sst>
 </file>
@@ -1649,7 +1646,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2137,8 +2134,8 @@
   <dimension ref="A1:G421"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B373" sqref="B373"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F343" sqref="F343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9009,7 +9006,7 @@
         <v>19100747</v>
       </c>
       <c r="F286" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G286" cm="1">
         <f t="array" ref="G286">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B286)*(curriculum!C:C=C286)*(curriculum!D:D=D286))</f>
@@ -9945,7 +9942,7 @@
         <v>202204224</v>
       </c>
       <c r="F325" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G325" cm="1">
         <f t="array" ref="G325">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B325)*(curriculum!C:C=C325)*(curriculum!D:D=D325))</f>
@@ -10329,7 +10326,7 @@
         <v>202304291</v>
       </c>
       <c r="F341" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G341" cm="1">
         <f t="array" ref="G341">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B341)*(curriculum!C:C=C341)*(curriculum!D:D=D341))</f>
@@ -10398,10 +10395,10 @@
         <v>91</v>
       </c>
       <c r="E344" s="1">
-        <v>202304467</v>
+        <v>202304566</v>
       </c>
       <c r="F344" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G344" cm="1">
         <f t="array" ref="G344">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B344)*(curriculum!C:C=C344)*(curriculum!D:D=D344))</f>

--- a/a_psat/data/study_curriculum_data.xlsx
+++ b/a_psat/data/study_curriculum_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\paedison3\a_psat\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\paedison3\a_psat\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB728130-3053-46FD-A90C-2E7AD7C2A3E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F8B3FB-EBC0-49B5-AB05-3E499EE30E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12600" yWindow="600" windowWidth="12600" windowHeight="15150" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-54720" yWindow="2220" windowWidth="16440" windowHeight="28440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="category" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="399">
   <si>
     <t>year</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1182,6 +1182,121 @@
   </si>
   <si>
     <t>최민지</t>
+  </si>
+  <si>
+    <t>PSAT탐구1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이은비</t>
+  </si>
+  <si>
+    <t>이현정</t>
+  </si>
+  <si>
+    <t>강석헌</t>
+  </si>
+  <si>
+    <t>황준석</t>
+  </si>
+  <si>
+    <t>강인성</t>
+  </si>
+  <si>
+    <t>김광일</t>
+  </si>
+  <si>
+    <t>박윤재</t>
+  </si>
+  <si>
+    <t>이제유</t>
+  </si>
+  <si>
+    <t>문소윤</t>
+  </si>
+  <si>
+    <t>이응범</t>
+  </si>
+  <si>
+    <t>나연재</t>
+  </si>
+  <si>
+    <t>서유림</t>
+  </si>
+  <si>
+    <t>최윤희</t>
+  </si>
+  <si>
+    <t>황명하</t>
+  </si>
+  <si>
+    <t>강호경</t>
+  </si>
+  <si>
+    <t>안홍진</t>
+  </si>
+  <si>
+    <t>하다현</t>
+  </si>
+  <si>
+    <t>공현우</t>
+  </si>
+  <si>
+    <t>김나령</t>
+  </si>
+  <si>
+    <t>김연주</t>
+  </si>
+  <si>
+    <t>김유정</t>
+  </si>
+  <si>
+    <t>김효인</t>
+  </si>
+  <si>
+    <t>이윤정</t>
+  </si>
+  <si>
+    <t>지명원</t>
+  </si>
+  <si>
+    <t>김성진</t>
+  </si>
+  <si>
+    <t>안지현</t>
+  </si>
+  <si>
+    <t>우유민</t>
+  </si>
+  <si>
+    <t>이지석</t>
+  </si>
+  <si>
+    <t>정희성</t>
+  </si>
+  <si>
+    <t>추현우</t>
+  </si>
+  <si>
+    <t>김다현</t>
+  </si>
+  <si>
+    <t>이송윤</t>
+  </si>
+  <si>
+    <t>고민정</t>
+  </si>
+  <si>
+    <t>서현석</t>
+  </si>
+  <si>
+    <t>박소현</t>
+  </si>
+  <si>
+    <t>양청주</t>
+  </si>
+  <si>
+    <t>최지율</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1652,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1642,11 +1757,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD90C9E2-0442-4F0C-8721-2DB5A704E182}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2118,6 +2233,60 @@
         <v>3</v>
       </c>
     </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2025</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>361</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" cm="1">
+        <f t="array" ref="H18">_xlfn._xlws.FILTER(category!A:A,(category!B:B=curriculum!F18)*(category!C:C=curriculum!G18))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2025</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" cm="1">
+        <f t="array" ref="H19">_xlfn._xlws.FILTER(category!A:A,(category!B:B=curriculum!F19)*(category!C:C=curriculum!G19))</f>
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:H17" xr:uid="{CD90C9E2-0442-4F0C-8721-2DB5A704E182}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G17">
@@ -2131,11 +2300,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G421"/>
+  <dimension ref="A1:G435"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F343" sqref="F343"/>
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E391" sqref="E391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2174,7 +2343,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" cm="1">
-        <f t="array" ref="A2:A373">_xlfn.SEQUENCE(COUNT(B:B))</f>
+        <f t="array" ref="A2:A435">_xlfn.SEQUENCE(COUNT(B:B))</f>
         <v>1</v>
       </c>
       <c r="B2">
@@ -11102,148 +11271,1492 @@
       </c>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E374"/>
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>2025</v>
+      </c>
+      <c r="C374">
+        <v>2</v>
+      </c>
+      <c r="D374" t="s">
+        <v>90</v>
+      </c>
+      <c r="E374">
+        <v>17101038</v>
+      </c>
+      <c r="F374" t="s">
+        <v>330</v>
+      </c>
+      <c r="G374" cm="1">
+        <f t="array" ref="G374">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B374)*(curriculum!C:C=C374)*(curriculum!D:D=D374))</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E375"/>
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>2025</v>
+      </c>
+      <c r="C375">
+        <v>2</v>
+      </c>
+      <c r="D375" t="s">
+        <v>90</v>
+      </c>
+      <c r="E375">
+        <v>20100406</v>
+      </c>
+      <c r="F375" t="s">
+        <v>332</v>
+      </c>
+      <c r="G375" cm="1">
+        <f t="array" ref="G375">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B375)*(curriculum!C:C=C375)*(curriculum!D:D=D375))</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E376"/>
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>2025</v>
+      </c>
+      <c r="C376">
+        <v>2</v>
+      </c>
+      <c r="D376" t="s">
+        <v>90</v>
+      </c>
+      <c r="E376">
+        <v>20101061</v>
+      </c>
+      <c r="F376" t="s">
+        <v>362</v>
+      </c>
+      <c r="G376" cm="1">
+        <f t="array" ref="G376">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B376)*(curriculum!C:C=C376)*(curriculum!D:D=D376))</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E377"/>
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="B377">
+        <v>2025</v>
+      </c>
+      <c r="C377">
+        <v>2</v>
+      </c>
+      <c r="D377" t="s">
+        <v>90</v>
+      </c>
+      <c r="E377">
+        <v>20101126</v>
+      </c>
+      <c r="F377" t="s">
+        <v>363</v>
+      </c>
+      <c r="G377" cm="1">
+        <f t="array" ref="G377">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B377)*(curriculum!C:C=C377)*(curriculum!D:D=D377))</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E378"/>
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="B378">
+        <v>2025</v>
+      </c>
+      <c r="C378">
+        <v>2</v>
+      </c>
+      <c r="D378" t="s">
+        <v>90</v>
+      </c>
+      <c r="E378">
+        <v>20101149</v>
+      </c>
+      <c r="F378" t="s">
+        <v>364</v>
+      </c>
+      <c r="G378" cm="1">
+        <f t="array" ref="G378">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B378)*(curriculum!C:C=C378)*(curriculum!D:D=D378))</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E379"/>
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="B379">
+        <v>2025</v>
+      </c>
+      <c r="C379">
+        <v>2</v>
+      </c>
+      <c r="D379" t="s">
+        <v>90</v>
+      </c>
+      <c r="E379">
+        <v>21101073</v>
+      </c>
+      <c r="F379" t="s">
+        <v>197</v>
+      </c>
+      <c r="G379" cm="1">
+        <f t="array" ref="G379">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B379)*(curriculum!C:C=C379)*(curriculum!D:D=D379))</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E380"/>
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="B380">
+        <v>2025</v>
+      </c>
+      <c r="C380">
+        <v>2</v>
+      </c>
+      <c r="D380" t="s">
+        <v>90</v>
+      </c>
+      <c r="E380">
+        <v>21101117</v>
+      </c>
+      <c r="F380" t="s">
+        <v>365</v>
+      </c>
+      <c r="G380" cm="1">
+        <f t="array" ref="G380">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B380)*(curriculum!C:C=C380)*(curriculum!D:D=D380))</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E381"/>
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="B381">
+        <v>2025</v>
+      </c>
+      <c r="C381">
+        <v>2</v>
+      </c>
+      <c r="D381" t="s">
+        <v>90</v>
+      </c>
+      <c r="E381">
+        <v>21101389</v>
+      </c>
+      <c r="F381" t="s">
+        <v>366</v>
+      </c>
+      <c r="G381" cm="1">
+        <f t="array" ref="G381">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B381)*(curriculum!C:C=C381)*(curriculum!D:D=D381))</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E382"/>
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="B382">
+        <v>2025</v>
+      </c>
+      <c r="C382">
+        <v>2</v>
+      </c>
+      <c r="D382" t="s">
+        <v>90</v>
+      </c>
+      <c r="E382">
+        <v>21102347</v>
+      </c>
+      <c r="F382" t="s">
+        <v>367</v>
+      </c>
+      <c r="G382" cm="1">
+        <f t="array" ref="G382">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B382)*(curriculum!C:C=C382)*(curriculum!D:D=D382))</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E383"/>
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="B383">
+        <v>2025</v>
+      </c>
+      <c r="C383">
+        <v>2</v>
+      </c>
+      <c r="D383" t="s">
+        <v>90</v>
+      </c>
+      <c r="E383">
+        <v>22101075</v>
+      </c>
+      <c r="F383" t="s">
+        <v>368</v>
+      </c>
+      <c r="G383" cm="1">
+        <f t="array" ref="G383">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B383)*(curriculum!C:C=C383)*(curriculum!D:D=D383))</f>
+        <v>17</v>
+      </c>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E384"/>
-    </row>
-    <row r="385" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E385"/>
-    </row>
-    <row r="386" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E386"/>
-    </row>
-    <row r="387" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E387"/>
-    </row>
-    <row r="388" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E388"/>
-    </row>
-    <row r="389" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E389"/>
-    </row>
-    <row r="390" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E390"/>
-    </row>
-    <row r="391" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E391"/>
-    </row>
-    <row r="392" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E392"/>
-    </row>
-    <row r="393" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E393"/>
-    </row>
-    <row r="394" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E394"/>
-    </row>
-    <row r="395" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E395"/>
-    </row>
-    <row r="396" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E396"/>
-    </row>
-    <row r="397" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E397"/>
-    </row>
-    <row r="398" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E398"/>
-    </row>
-    <row r="399" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E399"/>
-    </row>
-    <row r="400" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E400"/>
-    </row>
-    <row r="401" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E401"/>
-    </row>
-    <row r="402" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E402"/>
-    </row>
-    <row r="403" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E403"/>
-    </row>
-    <row r="404" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E404"/>
-    </row>
-    <row r="405" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E405"/>
-    </row>
-    <row r="406" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E406"/>
-    </row>
-    <row r="407" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E407"/>
-    </row>
-    <row r="408" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E408"/>
-    </row>
-    <row r="409" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E409"/>
-    </row>
-    <row r="410" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E410"/>
-    </row>
-    <row r="411" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E411"/>
-    </row>
-    <row r="412" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E412"/>
-    </row>
-    <row r="413" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E413"/>
-    </row>
-    <row r="414" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E414"/>
-    </row>
-    <row r="415" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E415"/>
-    </row>
-    <row r="416" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E416"/>
-    </row>
-    <row r="417" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E417"/>
-    </row>
-    <row r="418" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E418"/>
-    </row>
-    <row r="419" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E419"/>
-    </row>
-    <row r="420" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E420"/>
-    </row>
-    <row r="421" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E421"/>
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="B384">
+        <v>2025</v>
+      </c>
+      <c r="C384">
+        <v>2</v>
+      </c>
+      <c r="D384" t="s">
+        <v>90</v>
+      </c>
+      <c r="E384">
+        <v>22101090</v>
+      </c>
+      <c r="F384" t="s">
+        <v>369</v>
+      </c>
+      <c r="G384" cm="1">
+        <f t="array" ref="G384">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B384)*(curriculum!C:C=C384)*(curriculum!D:D=D384))</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="B385">
+        <v>2025</v>
+      </c>
+      <c r="C385">
+        <v>2</v>
+      </c>
+      <c r="D385" t="s">
+        <v>90</v>
+      </c>
+      <c r="E385">
+        <v>23101075</v>
+      </c>
+      <c r="F385" t="s">
+        <v>370</v>
+      </c>
+      <c r="G385" cm="1">
+        <f t="array" ref="G385">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B385)*(curriculum!C:C=C385)*(curriculum!D:D=D385))</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="B386">
+        <v>2025</v>
+      </c>
+      <c r="C386">
+        <v>2</v>
+      </c>
+      <c r="D386" t="s">
+        <v>90</v>
+      </c>
+      <c r="E386">
+        <v>23101094</v>
+      </c>
+      <c r="F386" t="s">
+        <v>371</v>
+      </c>
+      <c r="G386" cm="1">
+        <f t="array" ref="G386">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B386)*(curriculum!C:C=C386)*(curriculum!D:D=D386))</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="B387">
+        <v>2025</v>
+      </c>
+      <c r="C387">
+        <v>2</v>
+      </c>
+      <c r="D387" t="s">
+        <v>90</v>
+      </c>
+      <c r="E387">
+        <v>23101102</v>
+      </c>
+      <c r="F387" t="s">
+        <v>222</v>
+      </c>
+      <c r="G387" cm="1">
+        <f t="array" ref="G387">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B387)*(curriculum!C:C=C387)*(curriculum!D:D=D387))</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="B388">
+        <v>2025</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+      <c r="D388" t="s">
+        <v>90</v>
+      </c>
+      <c r="E388">
+        <v>24101099</v>
+      </c>
+      <c r="F388" t="s">
+        <v>372</v>
+      </c>
+      <c r="G388" cm="1">
+        <f t="array" ref="G388">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B388)*(curriculum!C:C=C388)*(curriculum!D:D=D388))</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="B389">
+        <v>2025</v>
+      </c>
+      <c r="C389">
+        <v>2</v>
+      </c>
+      <c r="D389" t="s">
+        <v>90</v>
+      </c>
+      <c r="E389">
+        <v>24101102</v>
+      </c>
+      <c r="F389" t="s">
+        <v>373</v>
+      </c>
+      <c r="G389" cm="1">
+        <f t="array" ref="G389">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B389)*(curriculum!C:C=C389)*(curriculum!D:D=D389))</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="B390">
+        <v>2025</v>
+      </c>
+      <c r="C390">
+        <v>2</v>
+      </c>
+      <c r="D390" t="s">
+        <v>90</v>
+      </c>
+      <c r="E390">
+        <v>24101132</v>
+      </c>
+      <c r="F390" t="s">
+        <v>374</v>
+      </c>
+      <c r="G390" cm="1">
+        <f t="array" ref="G390">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B390)*(curriculum!C:C=C390)*(curriculum!D:D=D390))</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="B391">
+        <v>2025</v>
+      </c>
+      <c r="C391">
+        <v>2</v>
+      </c>
+      <c r="D391" t="s">
+        <v>91</v>
+      </c>
+      <c r="E391">
+        <v>201803958</v>
+      </c>
+      <c r="F391" t="s">
+        <v>375</v>
+      </c>
+      <c r="G391" cm="1">
+        <f t="array" ref="G391">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B391)*(curriculum!C:C=C391)*(curriculum!D:D=D391))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="B392">
+        <v>2025</v>
+      </c>
+      <c r="C392">
+        <v>2</v>
+      </c>
+      <c r="D392" t="s">
+        <v>91</v>
+      </c>
+      <c r="E392">
+        <v>201900361</v>
+      </c>
+      <c r="F392" t="s">
+        <v>376</v>
+      </c>
+      <c r="G392" cm="1">
+        <f t="array" ref="G392">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B392)*(curriculum!C:C=C392)*(curriculum!D:D=D392))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="B393">
+        <v>2025</v>
+      </c>
+      <c r="C393">
+        <v>2</v>
+      </c>
+      <c r="D393" t="s">
+        <v>91</v>
+      </c>
+      <c r="E393">
+        <v>201902123</v>
+      </c>
+      <c r="F393" t="s">
+        <v>377</v>
+      </c>
+      <c r="G393" cm="1">
+        <f t="array" ref="G393">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B393)*(curriculum!C:C=C393)*(curriculum!D:D=D393))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="B394">
+        <v>2025</v>
+      </c>
+      <c r="C394">
+        <v>2</v>
+      </c>
+      <c r="D394" t="s">
+        <v>91</v>
+      </c>
+      <c r="E394">
+        <v>201903711</v>
+      </c>
+      <c r="F394" t="s">
+        <v>378</v>
+      </c>
+      <c r="G394" cm="1">
+        <f t="array" ref="G394">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B394)*(curriculum!C:C=C394)*(curriculum!D:D=D394))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="B395">
+        <v>2025</v>
+      </c>
+      <c r="C395">
+        <v>2</v>
+      </c>
+      <c r="D395" t="s">
+        <v>91</v>
+      </c>
+      <c r="E395">
+        <v>202000274</v>
+      </c>
+      <c r="F395" t="s">
+        <v>379</v>
+      </c>
+      <c r="G395" cm="1">
+        <f t="array" ref="G395">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B395)*(curriculum!C:C=C395)*(curriculum!D:D=D395))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="B396">
+        <v>2025</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+      <c r="D396" t="s">
+        <v>91</v>
+      </c>
+      <c r="E396">
+        <v>202002584</v>
+      </c>
+      <c r="F396" t="s">
+        <v>341</v>
+      </c>
+      <c r="G396" cm="1">
+        <f t="array" ref="G396">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B396)*(curriculum!C:C=C396)*(curriculum!D:D=D396))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="B397">
+        <v>2025</v>
+      </c>
+      <c r="C397">
+        <v>2</v>
+      </c>
+      <c r="D397" t="s">
+        <v>91</v>
+      </c>
+      <c r="E397">
+        <v>202100481</v>
+      </c>
+      <c r="F397" t="s">
+        <v>380</v>
+      </c>
+      <c r="G397" cm="1">
+        <f t="array" ref="G397">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B397)*(curriculum!C:C=C397)*(curriculum!D:D=D397))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="B398">
+        <v>2025</v>
+      </c>
+      <c r="C398">
+        <v>2</v>
+      </c>
+      <c r="D398" t="s">
+        <v>91</v>
+      </c>
+      <c r="E398">
+        <v>202100638</v>
+      </c>
+      <c r="F398" t="s">
+        <v>289</v>
+      </c>
+      <c r="G398" cm="1">
+        <f t="array" ref="G398">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B398)*(curriculum!C:C=C398)*(curriculum!D:D=D398))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="B399">
+        <v>2025</v>
+      </c>
+      <c r="C399">
+        <v>2</v>
+      </c>
+      <c r="D399" t="s">
+        <v>91</v>
+      </c>
+      <c r="E399">
+        <v>202100823</v>
+      </c>
+      <c r="F399" t="s">
+        <v>381</v>
+      </c>
+      <c r="G399" cm="1">
+        <f t="array" ref="G399">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B399)*(curriculum!C:C=C399)*(curriculum!D:D=D399))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="B400">
+        <v>2025</v>
+      </c>
+      <c r="C400">
+        <v>2</v>
+      </c>
+      <c r="D400" t="s">
+        <v>91</v>
+      </c>
+      <c r="E400">
+        <v>202100899</v>
+      </c>
+      <c r="F400" t="s">
+        <v>382</v>
+      </c>
+      <c r="G400" cm="1">
+        <f t="array" ref="G400">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B400)*(curriculum!C:C=C400)*(curriculum!D:D=D400))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="B401">
+        <v>2025</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+      <c r="D401" t="s">
+        <v>91</v>
+      </c>
+      <c r="E401">
+        <v>202101184</v>
+      </c>
+      <c r="F401" t="s">
+        <v>383</v>
+      </c>
+      <c r="G401" cm="1">
+        <f t="array" ref="G401">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B401)*(curriculum!C:C=C401)*(curriculum!D:D=D401))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="B402">
+        <v>2025</v>
+      </c>
+      <c r="C402">
+        <v>2</v>
+      </c>
+      <c r="D402" t="s">
+        <v>91</v>
+      </c>
+      <c r="E402">
+        <v>202101962</v>
+      </c>
+      <c r="F402" t="s">
+        <v>343</v>
+      </c>
+      <c r="G402" cm="1">
+        <f t="array" ref="G402">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B402)*(curriculum!C:C=C402)*(curriculum!D:D=D402))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="B403">
+        <v>2025</v>
+      </c>
+      <c r="C403">
+        <v>2</v>
+      </c>
+      <c r="D403" t="s">
+        <v>91</v>
+      </c>
+      <c r="E403">
+        <v>202102180</v>
+      </c>
+      <c r="F403" t="s">
+        <v>291</v>
+      </c>
+      <c r="G403" cm="1">
+        <f t="array" ref="G403">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B403)*(curriculum!C:C=C403)*(curriculum!D:D=D403))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="B404">
+        <v>2025</v>
+      </c>
+      <c r="C404">
+        <v>2</v>
+      </c>
+      <c r="D404" t="s">
+        <v>91</v>
+      </c>
+      <c r="E404">
+        <v>202102627</v>
+      </c>
+      <c r="F404" t="s">
+        <v>384</v>
+      </c>
+      <c r="G404" cm="1">
+        <f t="array" ref="G404">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B404)*(curriculum!C:C=C404)*(curriculum!D:D=D404))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="B405">
+        <v>2025</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+      <c r="D405" t="s">
+        <v>91</v>
+      </c>
+      <c r="E405">
+        <v>202103366</v>
+      </c>
+      <c r="F405" t="s">
+        <v>385</v>
+      </c>
+      <c r="G405" cm="1">
+        <f t="array" ref="G405">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B405)*(curriculum!C:C=C405)*(curriculum!D:D=D405))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="B406">
+        <v>2025</v>
+      </c>
+      <c r="C406">
+        <v>2</v>
+      </c>
+      <c r="D406" t="s">
+        <v>91</v>
+      </c>
+      <c r="E406">
+        <v>202104582</v>
+      </c>
+      <c r="F406" t="s">
+        <v>386</v>
+      </c>
+      <c r="G406" cm="1">
+        <f t="array" ref="G406">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B406)*(curriculum!C:C=C406)*(curriculum!D:D=D406))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="B407">
+        <v>2025</v>
+      </c>
+      <c r="C407">
+        <v>2</v>
+      </c>
+      <c r="D407" t="s">
+        <v>91</v>
+      </c>
+      <c r="E407">
+        <v>202200275</v>
+      </c>
+      <c r="F407" t="s">
+        <v>292</v>
+      </c>
+      <c r="G407" cm="1">
+        <f t="array" ref="G407">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B407)*(curriculum!C:C=C407)*(curriculum!D:D=D407))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="B408">
+        <v>2025</v>
+      </c>
+      <c r="C408">
+        <v>2</v>
+      </c>
+      <c r="D408" t="s">
+        <v>91</v>
+      </c>
+      <c r="E408">
+        <v>202201078</v>
+      </c>
+      <c r="F408" t="s">
+        <v>293</v>
+      </c>
+      <c r="G408" cm="1">
+        <f t="array" ref="G408">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B408)*(curriculum!C:C=C408)*(curriculum!D:D=D408))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="B409">
+        <v>2025</v>
+      </c>
+      <c r="C409">
+        <v>2</v>
+      </c>
+      <c r="D409" t="s">
+        <v>91</v>
+      </c>
+      <c r="E409">
+        <v>202201330</v>
+      </c>
+      <c r="F409" t="s">
+        <v>294</v>
+      </c>
+      <c r="G409" cm="1">
+        <f t="array" ref="G409">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B409)*(curriculum!C:C=C409)*(curriculum!D:D=D409))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="B410">
+        <v>2025</v>
+      </c>
+      <c r="C410">
+        <v>2</v>
+      </c>
+      <c r="D410" t="s">
+        <v>91</v>
+      </c>
+      <c r="E410">
+        <v>202202007</v>
+      </c>
+      <c r="F410" t="s">
+        <v>387</v>
+      </c>
+      <c r="G410" cm="1">
+        <f t="array" ref="G410">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B410)*(curriculum!C:C=C410)*(curriculum!D:D=D410))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="B411">
+        <v>2025</v>
+      </c>
+      <c r="C411">
+        <v>2</v>
+      </c>
+      <c r="D411" t="s">
+        <v>91</v>
+      </c>
+      <c r="E411">
+        <v>202202143</v>
+      </c>
+      <c r="F411" t="s">
+        <v>388</v>
+      </c>
+      <c r="G411" cm="1">
+        <f t="array" ref="G411">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B411)*(curriculum!C:C=C411)*(curriculum!D:D=D411))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="B412">
+        <v>2025</v>
+      </c>
+      <c r="C412">
+        <v>2</v>
+      </c>
+      <c r="D412" t="s">
+        <v>91</v>
+      </c>
+      <c r="E412">
+        <v>202202771</v>
+      </c>
+      <c r="F412" t="s">
+        <v>389</v>
+      </c>
+      <c r="G412" cm="1">
+        <f t="array" ref="G412">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B412)*(curriculum!C:C=C412)*(curriculum!D:D=D412))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="B413">
+        <v>2025</v>
+      </c>
+      <c r="C413">
+        <v>2</v>
+      </c>
+      <c r="D413" t="s">
+        <v>91</v>
+      </c>
+      <c r="E413">
+        <v>202203289</v>
+      </c>
+      <c r="F413" t="s">
+        <v>390</v>
+      </c>
+      <c r="G413" cm="1">
+        <f t="array" ref="G413">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B413)*(curriculum!C:C=C413)*(curriculum!D:D=D413))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="B414">
+        <v>2025</v>
+      </c>
+      <c r="C414">
+        <v>2</v>
+      </c>
+      <c r="D414" t="s">
+        <v>91</v>
+      </c>
+      <c r="E414">
+        <v>202203662</v>
+      </c>
+      <c r="F414" t="s">
+        <v>391</v>
+      </c>
+      <c r="G414" cm="1">
+        <f t="array" ref="G414">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B414)*(curriculum!C:C=C414)*(curriculum!D:D=D414))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="B415">
+        <v>2025</v>
+      </c>
+      <c r="C415">
+        <v>2</v>
+      </c>
+      <c r="D415" t="s">
+        <v>91</v>
+      </c>
+      <c r="E415">
+        <v>202204462</v>
+      </c>
+      <c r="F415" t="s">
+        <v>234</v>
+      </c>
+      <c r="G415" cm="1">
+        <f t="array" ref="G415">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B415)*(curriculum!C:C=C415)*(curriculum!D:D=D415))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="B416">
+        <v>2025</v>
+      </c>
+      <c r="C416">
+        <v>2</v>
+      </c>
+      <c r="D416" t="s">
+        <v>91</v>
+      </c>
+      <c r="E416">
+        <v>202300403</v>
+      </c>
+      <c r="F416" t="s">
+        <v>392</v>
+      </c>
+      <c r="G416" cm="1">
+        <f t="array" ref="G416">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B416)*(curriculum!C:C=C416)*(curriculum!D:D=D416))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="B417">
+        <v>2025</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+      <c r="D417" t="s">
+        <v>91</v>
+      </c>
+      <c r="E417">
+        <v>202300426</v>
+      </c>
+      <c r="F417" t="s">
+        <v>393</v>
+      </c>
+      <c r="G417" cm="1">
+        <f t="array" ref="G417">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B417)*(curriculum!C:C=C417)*(curriculum!D:D=D417))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="B418">
+        <v>2025</v>
+      </c>
+      <c r="C418">
+        <v>2</v>
+      </c>
+      <c r="D418" t="s">
+        <v>91</v>
+      </c>
+      <c r="E418">
+        <v>202300799</v>
+      </c>
+      <c r="F418" t="s">
+        <v>298</v>
+      </c>
+      <c r="G418" cm="1">
+        <f t="array" ref="G418">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B418)*(curriculum!C:C=C418)*(curriculum!D:D=D418))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="B419">
+        <v>2025</v>
+      </c>
+      <c r="C419">
+        <v>2</v>
+      </c>
+      <c r="D419" t="s">
+        <v>91</v>
+      </c>
+      <c r="E419">
+        <v>202302478</v>
+      </c>
+      <c r="F419" t="s">
+        <v>349</v>
+      </c>
+      <c r="G419" cm="1">
+        <f t="array" ref="G419">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B419)*(curriculum!C:C=C419)*(curriculum!D:D=D419))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="B420">
+        <v>2025</v>
+      </c>
+      <c r="C420">
+        <v>2</v>
+      </c>
+      <c r="D420" t="s">
+        <v>91</v>
+      </c>
+      <c r="E420">
+        <v>202303253</v>
+      </c>
+      <c r="F420" t="s">
+        <v>350</v>
+      </c>
+      <c r="G420" cm="1">
+        <f t="array" ref="G420">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B420)*(curriculum!C:C=C420)*(curriculum!D:D=D420))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="B421">
+        <v>2025</v>
+      </c>
+      <c r="C421">
+        <v>2</v>
+      </c>
+      <c r="D421" t="s">
+        <v>91</v>
+      </c>
+      <c r="E421">
+        <v>202303636</v>
+      </c>
+      <c r="F421" t="s">
+        <v>304</v>
+      </c>
+      <c r="G421" cm="1">
+        <f t="array" ref="G421">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B421)*(curriculum!C:C=C421)*(curriculum!D:D=D421))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="B422">
+        <v>2025</v>
+      </c>
+      <c r="C422">
+        <v>2</v>
+      </c>
+      <c r="D422" t="s">
+        <v>91</v>
+      </c>
+      <c r="E422" s="1">
+        <v>202303694</v>
+      </c>
+      <c r="F422" t="s">
+        <v>278</v>
+      </c>
+      <c r="G422" cm="1">
+        <f t="array" ref="G422">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B422)*(curriculum!C:C=C422)*(curriculum!D:D=D422))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="B423">
+        <v>2025</v>
+      </c>
+      <c r="C423">
+        <v>2</v>
+      </c>
+      <c r="D423" t="s">
+        <v>91</v>
+      </c>
+      <c r="E423" s="1">
+        <v>202304467</v>
+      </c>
+      <c r="F423" t="s">
+        <v>354</v>
+      </c>
+      <c r="G423" cm="1">
+        <f t="array" ref="G423">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B423)*(curriculum!C:C=C423)*(curriculum!D:D=D423))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="B424">
+        <v>2025</v>
+      </c>
+      <c r="C424">
+        <v>2</v>
+      </c>
+      <c r="D424" t="s">
+        <v>91</v>
+      </c>
+      <c r="E424" s="1">
+        <v>202304644</v>
+      </c>
+      <c r="F424" t="s">
+        <v>305</v>
+      </c>
+      <c r="G424" cm="1">
+        <f t="array" ref="G424">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B424)*(curriculum!C:C=C424)*(curriculum!D:D=D424))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="B425">
+        <v>2025</v>
+      </c>
+      <c r="C425">
+        <v>2</v>
+      </c>
+      <c r="D425" t="s">
+        <v>91</v>
+      </c>
+      <c r="E425" s="1">
+        <v>202400305</v>
+      </c>
+      <c r="F425" t="s">
+        <v>394</v>
+      </c>
+      <c r="G425" cm="1">
+        <f t="array" ref="G425">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B425)*(curriculum!C:C=C425)*(curriculum!D:D=D425))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="B426">
+        <v>2025</v>
+      </c>
+      <c r="C426">
+        <v>2</v>
+      </c>
+      <c r="D426" t="s">
+        <v>91</v>
+      </c>
+      <c r="E426" s="1">
+        <v>202400473</v>
+      </c>
+      <c r="F426" t="s">
+        <v>395</v>
+      </c>
+      <c r="G426" cm="1">
+        <f t="array" ref="G426">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B426)*(curriculum!C:C=C426)*(curriculum!D:D=D426))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="B427">
+        <v>2025</v>
+      </c>
+      <c r="C427">
+        <v>2</v>
+      </c>
+      <c r="D427" t="s">
+        <v>91</v>
+      </c>
+      <c r="E427" s="1">
+        <v>202401153</v>
+      </c>
+      <c r="F427" t="s">
+        <v>314</v>
+      </c>
+      <c r="G427" cm="1">
+        <f t="array" ref="G427">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B427)*(curriculum!C:C=C427)*(curriculum!D:D=D427))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="B428">
+        <v>2025</v>
+      </c>
+      <c r="C428">
+        <v>2</v>
+      </c>
+      <c r="D428" t="s">
+        <v>91</v>
+      </c>
+      <c r="E428" s="1">
+        <v>202401947</v>
+      </c>
+      <c r="F428" t="s">
+        <v>316</v>
+      </c>
+      <c r="G428" cm="1">
+        <f t="array" ref="G428">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B428)*(curriculum!C:C=C428)*(curriculum!D:D=D428))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="B429">
+        <v>2025</v>
+      </c>
+      <c r="C429">
+        <v>2</v>
+      </c>
+      <c r="D429" t="s">
+        <v>91</v>
+      </c>
+      <c r="E429" s="1">
+        <v>202402469</v>
+      </c>
+      <c r="F429" t="s">
+        <v>396</v>
+      </c>
+      <c r="G429" cm="1">
+        <f t="array" ref="G429">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B429)*(curriculum!C:C=C429)*(curriculum!D:D=D429))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="B430">
+        <v>2025</v>
+      </c>
+      <c r="C430">
+        <v>2</v>
+      </c>
+      <c r="D430" t="s">
+        <v>91</v>
+      </c>
+      <c r="E430" s="1">
+        <v>202402954</v>
+      </c>
+      <c r="F430" t="s">
+        <v>322</v>
+      </c>
+      <c r="G430" cm="1">
+        <f t="array" ref="G430">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B430)*(curriculum!C:C=C430)*(curriculum!D:D=D430))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="B431">
+        <v>2025</v>
+      </c>
+      <c r="C431">
+        <v>2</v>
+      </c>
+      <c r="D431" t="s">
+        <v>91</v>
+      </c>
+      <c r="E431" s="1">
+        <v>202403302</v>
+      </c>
+      <c r="F431" t="s">
+        <v>326</v>
+      </c>
+      <c r="G431" cm="1">
+        <f t="array" ref="G431">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B431)*(curriculum!C:C=C431)*(curriculum!D:D=D431))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="B432">
+        <v>2025</v>
+      </c>
+      <c r="C432">
+        <v>2</v>
+      </c>
+      <c r="D432" t="s">
+        <v>91</v>
+      </c>
+      <c r="E432" s="1">
+        <v>202403870</v>
+      </c>
+      <c r="F432" t="s">
+        <v>328</v>
+      </c>
+      <c r="G432" cm="1">
+        <f t="array" ref="G432">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B432)*(curriculum!C:C=C432)*(curriculum!D:D=D432))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="B433">
+        <v>2025</v>
+      </c>
+      <c r="C433">
+        <v>2</v>
+      </c>
+      <c r="D433" t="s">
+        <v>91</v>
+      </c>
+      <c r="E433" s="1">
+        <v>202403912</v>
+      </c>
+      <c r="F433" t="s">
+        <v>329</v>
+      </c>
+      <c r="G433" cm="1">
+        <f t="array" ref="G433">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B433)*(curriculum!C:C=C433)*(curriculum!D:D=D433))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="B434">
+        <v>2025</v>
+      </c>
+      <c r="C434">
+        <v>2</v>
+      </c>
+      <c r="D434" t="s">
+        <v>91</v>
+      </c>
+      <c r="E434" s="1">
+        <v>202404225</v>
+      </c>
+      <c r="F434" t="s">
+        <v>397</v>
+      </c>
+      <c r="G434" cm="1">
+        <f t="array" ref="G434">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B434)*(curriculum!C:C=C434)*(curriculum!D:D=D434))</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="B435">
+        <v>2025</v>
+      </c>
+      <c r="C435">
+        <v>2</v>
+      </c>
+      <c r="D435" t="s">
+        <v>91</v>
+      </c>
+      <c r="E435" s="1">
+        <v>202583014</v>
+      </c>
+      <c r="F435" t="s">
+        <v>398</v>
+      </c>
+      <c r="G435" cm="1">
+        <f t="array" ref="G435">_xlfn._xlws.FILTER(curriculum!A:A,(curriculum!B:B=B435)*(curriculum!C:C=C435)*(curriculum!D:D=D435))</f>
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G373">
